--- a/base/data_set/all_users_data.xlsx
+++ b/base/data_set/all_users_data.xlsx
@@ -10150,59 +10150,87 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="n">
-        <v>90001</v>
-      </c>
-      <c r="B198" t="n">
-        <v>357</v>
-      </c>
-      <c r="C198" t="n">
-        <v>192</v>
-      </c>
-      <c r="D198" t="n">
-        <v>-232</v>
-      </c>
-      <c r="E198" t="n">
-        <v>63</v>
-      </c>
-      <c r="F198" t="n">
-        <v>192</v>
-      </c>
-      <c r="G198" t="n">
-        <v>2</v>
-      </c>
-      <c r="H198" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>234273</v>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="n">
-        <v>90002</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1470</v>
-      </c>
-      <c r="C199" t="n">
-        <v>28</v>
-      </c>
-      <c r="D199" t="n">
-        <v>-197</v>
-      </c>
-      <c r="E199" t="n">
-        <v>-87</v>
-      </c>
-      <c r="F199" t="n">
-        <v>28</v>
-      </c>
-      <c r="G199" t="n">
-        <v>36</v>
-      </c>
-      <c r="H199" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>234268</v>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="4" t="n">
-        <v>234273</v>
+        <v>1234</v>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
@@ -10242,33 +10270,47 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="n">
-        <v>90003</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1579</v>
-      </c>
-      <c r="C201" t="n">
-        <v>123</v>
-      </c>
-      <c r="D201" t="n">
-        <v>-101</v>
-      </c>
-      <c r="E201" t="n">
-        <v>-174</v>
-      </c>
-      <c r="F201" t="n">
-        <v>123</v>
-      </c>
-      <c r="G201" t="n">
-        <v>94</v>
-      </c>
-      <c r="H201" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>2121</v>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="4" t="n">
-        <v>2121</v>
+        <v>234258</v>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
@@ -10308,7 +10350,7 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="n">
-        <v>234268</v>
+        <v>324</v>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
@@ -10348,61 +10390,87 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="n">
-        <v>234275</v>
-      </c>
-      <c r="B204" t="n">
-        <v>100</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0</v>
+        <v>1231</v>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E204" t="n">
-        <v>30</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G204" t="n">
-        <v>5</v>
-      </c>
-      <c r="H204" s="5" t="n">
-        <v>44211.87403935185</v>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="n">
-        <v>90000</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-113</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" t="n">
-        <v>-291</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-29</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="n">
-        <v>20</v>
-      </c>
-      <c r="H205" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>1233</v>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="4" t="n">
-        <v>234258</v>
+        <v>234235</v>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
@@ -10442,7 +10510,7 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="n">
-        <v>555</v>
+        <v>12345</v>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
@@ -10482,7 +10550,7 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="n">
-        <v>145</v>
+        <v>555</v>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
@@ -10522,7 +10590,7 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="n">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
@@ -10534,8 +10602,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D209" t="n">
-        <v>-55</v>
+      <c r="D209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
@@ -10560,7 +10630,7 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="n">
-        <v>234266</v>
+        <v>295</v>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
@@ -10572,10 +10642,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D210" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D210" t="n">
+        <v>-55</v>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
@@ -10600,7 +10668,7 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="n">
-        <v>9999</v>
+        <v>1232</v>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
@@ -10612,10 +10680,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D211" t="n">
+        <v>-44</v>
       </c>
       <c r="E211" s="3" t="inlineStr">
         <is>
@@ -10640,7 +10706,7 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="n">
-        <v>1234</v>
+        <v>234270</v>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
@@ -10680,7 +10746,7 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="n">
-        <v>1232</v>
+        <v>789987</v>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
@@ -10692,8 +10758,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D213" t="n">
-        <v>-44</v>
+      <c r="D213" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E213" s="3" t="inlineStr">
         <is>
@@ -10718,7 +10786,7 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="n">
-        <v>789987</v>
+        <v>111111</v>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
@@ -10758,7 +10826,7 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="n">
-        <v>111111</v>
+        <v>444</v>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
@@ -10770,10 +10838,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D215" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D215" t="n">
+        <v>-25</v>
       </c>
       <c r="E215" s="3" t="inlineStr">
         <is>
@@ -10798,12 +10864,10 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="n">
-        <v>234270</v>
-      </c>
-      <c r="B216" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>234275</v>
+      </c>
+      <c r="B216" t="n">
+        <v>100</v>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
@@ -10815,20 +10879,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E216" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F216" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G216" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E216" t="n">
+        <v>30</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>5</v>
       </c>
       <c r="H216" s="3" t="inlineStr">
         <is>
@@ -10838,47 +10896,33 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="n">
-        <v>324</v>
-      </c>
-      <c r="B217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>90000</v>
+      </c>
+      <c r="B217" t="n">
+        <v>83</v>
+      </c>
+      <c r="C217" t="n">
+        <v>695</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-513</v>
+      </c>
+      <c r="E217" t="n">
+        <v>96</v>
+      </c>
+      <c r="F217" t="n">
+        <v>695</v>
+      </c>
+      <c r="G217" t="n">
+        <v>322</v>
+      </c>
+      <c r="H217" s="5" t="n">
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="4" t="n">
-        <v>444</v>
+        <v>234266</v>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
@@ -10890,8 +10934,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D218" t="n">
-        <v>-25</v>
+      <c r="D218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
@@ -10916,361 +10962,333 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="n">
-        <v>90004</v>
-      </c>
-      <c r="B219" t="n">
-        <v>188</v>
-      </c>
-      <c r="C219" t="n">
-        <v>355</v>
-      </c>
-      <c r="D219" t="n">
-        <v>-445</v>
-      </c>
-      <c r="E219" t="n">
-        <v>145</v>
-      </c>
-      <c r="F219" t="n">
-        <v>355</v>
-      </c>
-      <c r="G219" t="n">
-        <v>111</v>
-      </c>
-      <c r="H219" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>297</v>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="4" t="n">
-        <v>90005</v>
-      </c>
-      <c r="B220" t="n">
-        <v>134</v>
-      </c>
-      <c r="C220" t="n">
-        <v>14</v>
-      </c>
-      <c r="D220" t="n">
-        <v>-359</v>
-      </c>
-      <c r="E220" t="n">
-        <v>-130</v>
-      </c>
-      <c r="F220" t="n">
-        <v>14</v>
-      </c>
-      <c r="G220" t="n">
-        <v>127</v>
-      </c>
-      <c r="H220" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>9999</v>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="n">
-        <v>90006</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-906</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0</v>
+        <v>234274</v>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D221" t="n">
-        <v>-223</v>
-      </c>
-      <c r="E221" t="n">
-        <v>-137</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="n">
-        <v>85</v>
-      </c>
-      <c r="H221" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>-20</v>
+      </c>
+      <c r="E221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="4" t="n">
-        <v>234235</v>
-      </c>
-      <c r="B222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>90001</v>
+      </c>
+      <c r="B222" t="n">
+        <v>186</v>
+      </c>
+      <c r="C222" t="n">
+        <v>540</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-207</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F222" t="n">
+        <v>540</v>
+      </c>
+      <c r="G222" t="n">
+        <v>236</v>
+      </c>
+      <c r="H222" s="5" t="n">
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="n">
-        <v>234276</v>
-      </c>
-      <c r="B223" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C223" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>90002</v>
+      </c>
+      <c r="B223" t="n">
+        <v>19</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E223" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F223" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G223" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H223" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-254</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-178</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>88</v>
+      </c>
+      <c r="H223" s="5" t="n">
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="4" t="n">
-        <v>90007</v>
+        <v>90003</v>
       </c>
       <c r="B224" t="n">
-        <v>-527</v>
+        <v>1073</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D224" t="n">
-        <v>-528</v>
+        <v>-507</v>
       </c>
       <c r="E224" t="n">
-        <v>-193</v>
+        <v>-18</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G224" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H224" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="n">
-        <v>90008</v>
+        <v>90007</v>
       </c>
       <c r="B225" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C225" t="n">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="D225" t="n">
-        <v>-260</v>
+        <v>-178</v>
       </c>
       <c r="E225" t="n">
-        <v>-104</v>
+        <v>23</v>
       </c>
       <c r="F225" t="n">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="G225" t="n">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="H225" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="4" t="n">
-        <v>12345</v>
-      </c>
-      <c r="B226" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C226" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D226" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E226" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F226" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G226" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H226" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>90008</v>
+      </c>
+      <c r="B226" t="n">
+        <v>334</v>
+      </c>
+      <c r="C226" t="n">
+        <v>246</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-325</v>
+      </c>
+      <c r="E226" t="n">
+        <v>86</v>
+      </c>
+      <c r="F226" t="n">
+        <v>246</v>
+      </c>
+      <c r="G226" t="n">
+        <v>111</v>
+      </c>
+      <c r="H226" s="5" t="n">
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="4" t="n">
-        <v>1231</v>
-      </c>
-      <c r="B227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>90004</v>
+      </c>
+      <c r="B227" t="n">
+        <v>570</v>
+      </c>
+      <c r="C227" t="n">
+        <v>190</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-124</v>
+      </c>
+      <c r="E227" t="n">
+        <v>181</v>
+      </c>
+      <c r="F227" t="n">
+        <v>190</v>
+      </c>
+      <c r="G227" t="n">
+        <v>3</v>
+      </c>
+      <c r="H227" s="5" t="n">
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="4" t="n">
-        <v>1233</v>
-      </c>
-      <c r="B228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>90005</v>
+      </c>
+      <c r="B228" t="n">
+        <v>732</v>
+      </c>
+      <c r="C228" t="n">
+        <v>37</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-203</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-86</v>
+      </c>
+      <c r="F228" t="n">
+        <v>37</v>
+      </c>
+      <c r="G228" t="n">
+        <v>41</v>
+      </c>
+      <c r="H228" s="5" t="n">
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="n">
-        <v>90009</v>
+        <v>90006</v>
       </c>
       <c r="B229" t="n">
-        <v>482</v>
+        <v>-921</v>
       </c>
       <c r="C229" t="n">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>-257</v>
+        <v>-418</v>
       </c>
       <c r="E229" t="n">
-        <v>121</v>
+        <v>-88</v>
       </c>
       <c r="F229" t="n">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H229" s="5" t="n">
-        <v>44212.32231481482</v>
+        <v>44221.46157407408</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="4" t="n">
-        <v>234274</v>
+        <v>234265</v>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
@@ -11282,8 +11300,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D230" t="n">
-        <v>-20</v>
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
@@ -11308,7 +11328,7 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="n">
-        <v>297</v>
+        <v>234276</v>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
@@ -11320,10 +11340,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D231" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D231" t="n">
+        <v>0</v>
       </c>
       <c r="E231" s="3" t="inlineStr">
         <is>
@@ -11348,7 +11366,7 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="n">
-        <v>234249</v>
+        <v>234272</v>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
@@ -11388,7 +11406,7 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="n">
-        <v>345</v>
+        <v>234249</v>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
@@ -11428,7 +11446,7 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="n">
-        <v>234265</v>
+        <v>345</v>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
@@ -11468,42 +11486,28 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="n">
-        <v>234272</v>
-      </c>
-      <c r="B235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>90009</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1591</v>
+      </c>
+      <c r="C235" t="n">
+        <v>116</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-274</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-111</v>
+      </c>
+      <c r="F235" t="n">
+        <v>116</v>
+      </c>
+      <c r="G235" t="n">
+        <v>201</v>
+      </c>
+      <c r="H235" s="5" t="n">
+        <v>44221.46157407408</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/all_users_data.xlsx
+++ b/base/data_set/all_users_data.xlsx
@@ -3587,13 +3587,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>2000</v>
@@ -15064,20 +15064,16 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="n">
-        <v>234273</v>
+        <v>555</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
-      <c r="C199" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D199" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
       </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
@@ -15092,10 +15088,8 @@
       <c r="G199" t="n">
         <v>0</v>
       </c>
-      <c r="H199" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H199" t="n">
+        <v>123123</v>
       </c>
       <c r="I199" s="3" t="inlineStr">
         <is>
@@ -15120,7 +15114,7 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="n">
-        <v>555</v>
+        <v>234270</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -15145,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>123123</v>
+        <v>234234</v>
       </c>
       <c r="I200" s="3" t="inlineStr">
         <is>
@@ -15220,107 +15214,91 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="n">
-        <v>1232</v>
+        <v>90000</v>
       </c>
       <c r="B202" t="n">
+        <v>-489</v>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>-214</v>
+      </c>
+      <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="C202" t="n">
+      <c r="G202" t="n">
+        <v>-54</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1003</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-72</v>
+      </c>
+      <c r="J202" t="n">
         <v>0</v>
       </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F202" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" t="n">
-        <v>23423</v>
-      </c>
-      <c r="I202" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J202" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K202" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L202" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K202" t="n">
+        <v>43</v>
+      </c>
+      <c r="L202" s="5" t="n">
+        <v>44274.53299768519</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="n">
-        <v>234258</v>
+        <v>90001</v>
       </c>
       <c r="B203" t="n">
+        <v>526</v>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>-799</v>
+      </c>
+      <c r="F203" t="n">
         <v>0</v>
       </c>
-      <c r="C203" t="n">
+      <c r="G203" t="n">
+        <v>-153</v>
+      </c>
+      <c r="H203" t="n">
+        <v>798</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-39</v>
+      </c>
+      <c r="J203" t="n">
         <v>0</v>
       </c>
-      <c r="D203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F203" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="n">
-        <v>234234</v>
-      </c>
-      <c r="I203" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J203" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K203" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L203" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K203" t="n">
+        <v>22</v>
+      </c>
+      <c r="L203" s="5" t="n">
+        <v>44274.53299768519</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="4" t="n">
-        <v>234265</v>
+        <v>1232</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -15345,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>45343</v>
+        <v>23423</v>
       </c>
       <c r="I204" s="3" t="inlineStr">
         <is>
@@ -15370,7 +15348,7 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="n">
-        <v>234270</v>
+        <v>234265</v>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -15395,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>234234</v>
+        <v>45343</v>
       </c>
       <c r="I205" s="3" t="inlineStr">
         <is>
@@ -15420,194 +15398,186 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="n">
-        <v>234249</v>
+        <v>90002</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F206" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>382</v>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>1094</v>
+      </c>
+      <c r="F206" t="n">
+        <v>105</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>-182</v>
       </c>
       <c r="H206" t="n">
-        <v>234234</v>
-      </c>
-      <c r="I206" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J206" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K206" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L206" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>459</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-166</v>
+      </c>
+      <c r="J206" t="n">
+        <v>105</v>
+      </c>
+      <c r="K206" t="n">
+        <v>134</v>
+      </c>
+      <c r="L206" s="5" t="n">
+        <v>44274.53299768519</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="n">
-        <v>90004</v>
+        <v>234275</v>
       </c>
       <c r="B207" t="n">
-        <v>536</v>
-      </c>
-      <c r="C207" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D207" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>-539</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G207" t="n">
-        <v>-335</v>
+        <v>-50</v>
       </c>
       <c r="H207" t="n">
-        <v>336</v>
+        <v>2000</v>
       </c>
       <c r="I207" t="n">
-        <v>-179</v>
+        <v>30</v>
       </c>
       <c r="J207" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K207" t="n">
-        <v>55</v>
-      </c>
-      <c r="L207" s="5" t="n">
-        <v>44258.42304398148</v>
+        <v>5</v>
+      </c>
+      <c r="L207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="4" t="n">
-        <v>444</v>
+        <v>90003</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F208" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>562</v>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>364</v>
+      </c>
+      <c r="F208" t="n">
+        <v>282</v>
       </c>
       <c r="G208" t="n">
-        <v>-500</v>
+        <v>-353</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J208" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K208" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L208" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>961</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-142</v>
+      </c>
+      <c r="J208" t="n">
+        <v>282</v>
+      </c>
+      <c r="K208" t="n">
+        <v>310</v>
+      </c>
+      <c r="L208" s="5" t="n">
+        <v>44274.53300925926</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="n">
-        <v>90001</v>
+        <v>2121</v>
       </c>
       <c r="B209" t="n">
-        <v>-143</v>
-      </c>
-      <c r="C209" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D209" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>95</v>
-      </c>
-      <c r="F209" t="n">
-        <v>378</v>
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G209" t="n">
-        <v>-625</v>
+        <v>15570</v>
       </c>
       <c r="H209" t="n">
-        <v>356</v>
-      </c>
-      <c r="I209" t="n">
-        <v>-130</v>
-      </c>
-      <c r="J209" t="n">
-        <v>378</v>
-      </c>
-      <c r="K209" t="n">
-        <v>104</v>
-      </c>
-      <c r="L209" s="5" t="n">
-        <v>44258.42304398148</v>
+        <v>234234</v>
+      </c>
+      <c r="I209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="4" t="n">
-        <v>90002</v>
+        <v>90004</v>
       </c>
       <c r="B210" t="n">
-        <v>-361</v>
+        <v>116</v>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
@@ -15620,78 +15590,70 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>162</v>
+        <v>-946</v>
       </c>
       <c r="F210" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>-264</v>
+        <v>-112</v>
       </c>
       <c r="H210" t="n">
-        <v>163</v>
+        <v>1091</v>
       </c>
       <c r="I210" t="n">
-        <v>-58</v>
+        <v>-67</v>
       </c>
       <c r="J210" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L210" s="5" t="n">
-        <v>44258.42304398148</v>
+        <v>44274.53300925926</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="n">
-        <v>234274</v>
+        <v>90005</v>
       </c>
       <c r="B211" t="n">
+        <v>142</v>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>-419</v>
+      </c>
+      <c r="F211" t="n">
         <v>0</v>
       </c>
-      <c r="C211" t="n">
+      <c r="G211" t="n">
+        <v>-348</v>
+      </c>
+      <c r="H211" t="n">
+        <v>847</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-57</v>
+      </c>
+      <c r="J211" t="n">
         <v>0</v>
       </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K211" t="n">
+        <v>21</v>
+      </c>
+      <c r="L211" s="5" t="n">
+        <v>44274.53300925926</v>
       </c>
     </row>
     <row r="212">
@@ -15746,7 +15708,7 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="n">
-        <v>295</v>
+        <v>234258</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -15771,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>23423</v>
+        <v>234234</v>
       </c>
       <c r="I213" s="3" t="inlineStr">
         <is>
@@ -15796,7 +15758,7 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="n">
-        <v>789987</v>
+        <v>234249</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -15821,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>234234</v>
       </c>
       <c r="I214" s="3" t="inlineStr">
         <is>
@@ -15846,7 +15808,7 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="n">
-        <v>1231</v>
+        <v>295</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -15871,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>4124</v>
+        <v>23423</v>
       </c>
       <c r="I215" s="3" t="inlineStr">
         <is>
@@ -15896,7 +15858,7 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="n">
-        <v>9999</v>
+        <v>789987</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -15921,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>12523</v>
+        <v>0</v>
       </c>
       <c r="I216" s="3" t="inlineStr">
         <is>
@@ -15946,10 +15908,10 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="n">
-        <v>90003</v>
+        <v>90006</v>
       </c>
       <c r="B217" t="n">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
@@ -15962,33 +15924,33 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1294</v>
+        <v>164</v>
       </c>
       <c r="F217" t="n">
-        <v>71</v>
+        <v>666</v>
       </c>
       <c r="G217" t="n">
-        <v>-302</v>
+        <v>-528</v>
       </c>
       <c r="H217" t="n">
-        <v>533</v>
+        <v>85</v>
       </c>
       <c r="I217" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="J217" t="n">
-        <v>71</v>
+        <v>666</v>
       </c>
       <c r="K217" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L217" s="5" t="n">
-        <v>44258.42304398148</v>
+        <v>44274.53300925926</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="4" t="n">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B218" t="n">
         <v>0</v>
@@ -16013,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>2141234</v>
+        <v>4124</v>
       </c>
       <c r="I218" s="3" t="inlineStr">
         <is>
@@ -16038,7 +16000,7 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="n">
-        <v>234268</v>
+        <v>9999</v>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -16063,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>23423</v>
+        <v>12523</v>
       </c>
       <c r="I219" s="3" t="inlineStr">
         <is>
@@ -16088,60 +16050,52 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="n">
-        <v>12345</v>
+        <v>90007</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F220" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>172</v>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>213</v>
+      </c>
+      <c r="F220" t="n">
+        <v>119</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>-235</v>
       </c>
       <c r="H220" t="n">
-        <v>34232</v>
-      </c>
-      <c r="I220" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J220" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K220" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L220" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>923</v>
+      </c>
+      <c r="I220" t="n">
+        <v>-118</v>
+      </c>
+      <c r="J220" t="n">
+        <v>119</v>
+      </c>
+      <c r="K220" t="n">
+        <v>183</v>
+      </c>
+      <c r="L220" s="5" t="n">
+        <v>44274.53300925926</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="n">
-        <v>90005</v>
+        <v>90009</v>
       </c>
       <c r="B221" t="n">
-        <v>-408</v>
+        <v>326</v>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
@@ -16154,112 +16108,128 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-150</v>
+        <v>200</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G221" t="n">
-        <v>-260</v>
+        <v>-163</v>
       </c>
       <c r="H221" t="n">
-        <v>569</v>
+        <v>1001</v>
       </c>
       <c r="I221" t="n">
-        <v>-81</v>
+        <v>-186</v>
       </c>
       <c r="J221" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="K221" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="L221" s="5" t="n">
-        <v>44258.42304398148</v>
+        <v>44274.53300925926</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="4" t="n">
-        <v>90006</v>
+        <v>234268</v>
       </c>
       <c r="B222" t="n">
-        <v>-370</v>
-      </c>
-      <c r="C222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>424</v>
-      </c>
-      <c r="F222" t="n">
-        <v>311</v>
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F222" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G222" t="n">
-        <v>-378</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>380</v>
-      </c>
-      <c r="I222" t="n">
-        <v>178</v>
-      </c>
-      <c r="J222" t="n">
-        <v>311</v>
-      </c>
-      <c r="K222" t="n">
-        <v>104</v>
-      </c>
-      <c r="L222" s="5" t="n">
-        <v>44258.42304398148</v>
+        <v>23423</v>
+      </c>
+      <c r="I222" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J222" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K222" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L222" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="n">
-        <v>90007</v>
+        <v>1234</v>
       </c>
       <c r="B223" t="n">
-        <v>62</v>
-      </c>
-      <c r="C223" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D223" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>40</v>
-      </c>
-      <c r="F223" t="n">
-        <v>535</v>
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F223" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G223" t="n">
-        <v>-177</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>25</v>
-      </c>
-      <c r="I223" t="n">
-        <v>89</v>
-      </c>
-      <c r="J223" t="n">
-        <v>535</v>
-      </c>
-      <c r="K223" t="n">
-        <v>38</v>
-      </c>
-      <c r="L223" s="5" t="n">
-        <v>44258.42305555556</v>
+        <v>2141234</v>
+      </c>
+      <c r="I223" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J223" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K223" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L223" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -16267,7 +16237,7 @@
         <v>90008</v>
       </c>
       <c r="B224" t="n">
-        <v>-240</v>
+        <v>-278</v>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
@@ -16280,75 +16250,83 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>546</v>
+        <v>-380</v>
       </c>
       <c r="F224" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>-540</v>
+        <v>-216</v>
       </c>
       <c r="H224" t="n">
-        <v>273</v>
+        <v>1030</v>
       </c>
       <c r="I224" t="n">
-        <v>-37</v>
+        <v>-17</v>
       </c>
       <c r="J224" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="L224" s="5" t="n">
-        <v>44258.42305555556</v>
+        <v>44274.53300925926</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="n">
-        <v>90009</v>
+        <v>234274</v>
       </c>
       <c r="B225" t="n">
-        <v>150</v>
-      </c>
-      <c r="C225" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D225" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>105</v>
-      </c>
-      <c r="F225" t="n">
-        <v>549</v>
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G225" t="n">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>1023</v>
-      </c>
-      <c r="I225" t="n">
-        <v>100</v>
-      </c>
-      <c r="J225" t="n">
-        <v>549</v>
-      </c>
-      <c r="K225" t="n">
-        <v>316</v>
-      </c>
-      <c r="L225" s="5" t="n">
-        <v>44258.42305555556</v>
+        <v>0</v>
+      </c>
+      <c r="I225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="4" t="n">
-        <v>111111</v>
+        <v>345</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -16373,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>345</v>
+        <v>42345</v>
       </c>
       <c r="I226" s="3" t="inlineStr">
         <is>
@@ -16398,7 +16376,7 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="n">
-        <v>2121</v>
+        <v>12345</v>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -16423,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>234234</v>
+        <v>34232</v>
       </c>
       <c r="I227" s="3" t="inlineStr">
         <is>
@@ -16448,57 +16426,47 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="n">
-        <v>345</v>
+        <v>234273</v>
       </c>
       <c r="B228" t="n">
+        <v>-100</v>
+      </c>
+      <c r="C228" t="n">
+        <v>100</v>
+      </c>
+      <c r="D228" t="n">
+        <v>100</v>
+      </c>
+      <c r="E228" t="n">
         <v>0</v>
       </c>
-      <c r="C228" t="n">
-        <v>0</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0</v>
-      </c>
-      <c r="E228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F228" t="n">
+        <v>50</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
       </c>
-      <c r="H228" t="n">
-        <v>42345</v>
-      </c>
-      <c r="I228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H228" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>50</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" s="5" t="n">
+        <v>44273.81173611111</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="n">
-        <v>234235</v>
+        <v>111111</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -16523,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>34534</v>
+        <v>345</v>
       </c>
       <c r="I229" s="3" t="inlineStr">
         <is>
@@ -16548,49 +16516,53 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="n">
-        <v>90000</v>
+        <v>444</v>
       </c>
       <c r="B230" t="n">
-        <v>-82</v>
-      </c>
-      <c r="C230" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D230" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>623</v>
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F230" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>-223</v>
+        <v>-500</v>
       </c>
       <c r="H230" t="n">
-        <v>556</v>
-      </c>
-      <c r="I230" t="n">
-        <v>-16</v>
+        <v>0</v>
+      </c>
+      <c r="I230" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J230" t="n">
-        <v>17</v>
-      </c>
-      <c r="K230" t="n">
-        <v>11</v>
-      </c>
-      <c r="L230" s="5" t="n">
-        <v>44258.42304398148</v>
+        <v>-500</v>
+      </c>
+      <c r="K230" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L230" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="n">
-        <v>234282</v>
+        <v>234235</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -16614,10 +16586,8 @@
       <c r="G231" t="n">
         <v>0</v>
       </c>
-      <c r="H231" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H231" t="n">
+        <v>34534</v>
       </c>
       <c r="I231" s="3" t="inlineStr">
         <is>
@@ -16642,7 +16612,7 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="n">
-        <v>234272</v>
+        <v>234282</v>
       </c>
       <c r="B232" t="n">
         <v>0</v>
@@ -16666,8 +16636,10 @@
       <c r="G232" t="n">
         <v>0</v>
       </c>
-      <c r="H232" t="n">
-        <v>23423</v>
+      <c r="H232" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I232" s="3" t="inlineStr">
         <is>
@@ -16692,7 +16664,7 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="n">
-        <v>234266</v>
+        <v>234272</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -16717,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>4533</v>
+        <v>23423</v>
       </c>
       <c r="I233" s="3" t="inlineStr">
         <is>
@@ -16742,7 +16714,7 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="n">
-        <v>1233</v>
+        <v>234276</v>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -16751,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
@@ -16767,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>412412</v>
+        <v>0</v>
       </c>
       <c r="I234" s="3" t="inlineStr">
         <is>
@@ -16844,16 +16816,16 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="n">
-        <v>234276</v>
+        <v>1233</v>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>-372</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
@@ -16869,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>412412</v>
       </c>
       <c r="I236" s="3" t="inlineStr">
         <is>
@@ -16894,10 +16866,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="n">
-        <v>234275</v>
+        <v>234266</v>
       </c>
       <c r="B237" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -16905,29 +16877,41 @@
       <c r="D237" t="n">
         <v>0</v>
       </c>
-      <c r="E237" t="n">
-        <v>100</v>
-      </c>
-      <c r="F237" t="n">
+      <c r="E237" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F237" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
         <v>0</v>
       </c>
-      <c r="G237" t="n">
-        <v>-50</v>
-      </c>
       <c r="H237" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I237" t="n">
-        <v>30</v>
-      </c>
-      <c r="J237" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K237" t="n">
-        <v>5</v>
-      </c>
-      <c r="L237" s="5" t="n">
-        <v>44258.4100462963</v>
+        <v>4533</v>
+      </c>
+      <c r="I237" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J237" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K237" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L237" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/all_users_data.xlsx
+++ b/base/data_set/all_users_data.xlsx
@@ -376,7 +376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L237"/>
+  <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,138 +3096,6 @@
     <col width="15" customWidth="1" min="2710" max="2710"/>
     <col width="15" customWidth="1" min="2711" max="2711"/>
     <col width="15" customWidth="1" min="2712" max="2712"/>
-    <col width="15" customWidth="1" min="2713" max="2713"/>
-    <col width="15" customWidth="1" min="2714" max="2714"/>
-    <col width="15" customWidth="1" min="2715" max="2715"/>
-    <col width="15" customWidth="1" min="2716" max="2716"/>
-    <col width="15" customWidth="1" min="2717" max="2717"/>
-    <col width="15" customWidth="1" min="2718" max="2718"/>
-    <col width="25" customWidth="1" min="2719" max="2719"/>
-    <col width="15" customWidth="1" min="2720" max="2720"/>
-    <col width="15" customWidth="1" min="2721" max="2721"/>
-    <col width="15" customWidth="1" min="2722" max="2722"/>
-    <col width="15" customWidth="1" min="2723" max="2723"/>
-    <col width="15" customWidth="1" min="2724" max="2724"/>
-    <col width="15" customWidth="1" min="2725" max="2725"/>
-    <col width="15" customWidth="1" min="2726" max="2726"/>
-    <col width="15" customWidth="1" min="2727" max="2727"/>
-    <col width="15" customWidth="1" min="2728" max="2728"/>
-    <col width="15" customWidth="1" min="2729" max="2729"/>
-    <col width="15" customWidth="1" min="2730" max="2730"/>
-    <col width="25" customWidth="1" min="2731" max="2731"/>
-    <col width="15" customWidth="1" min="2732" max="2732"/>
-    <col width="15" customWidth="1" min="2733" max="2733"/>
-    <col width="15" customWidth="1" min="2734" max="2734"/>
-    <col width="15" customWidth="1" min="2735" max="2735"/>
-    <col width="15" customWidth="1" min="2736" max="2736"/>
-    <col width="15" customWidth="1" min="2737" max="2737"/>
-    <col width="15" customWidth="1" min="2738" max="2738"/>
-    <col width="15" customWidth="1" min="2739" max="2739"/>
-    <col width="15" customWidth="1" min="2740" max="2740"/>
-    <col width="15" customWidth="1" min="2741" max="2741"/>
-    <col width="15" customWidth="1" min="2742" max="2742"/>
-    <col width="25" customWidth="1" min="2743" max="2743"/>
-    <col width="15" customWidth="1" min="2744" max="2744"/>
-    <col width="15" customWidth="1" min="2745" max="2745"/>
-    <col width="15" customWidth="1" min="2746" max="2746"/>
-    <col width="15" customWidth="1" min="2747" max="2747"/>
-    <col width="15" customWidth="1" min="2748" max="2748"/>
-    <col width="15" customWidth="1" min="2749" max="2749"/>
-    <col width="15" customWidth="1" min="2750" max="2750"/>
-    <col width="15" customWidth="1" min="2751" max="2751"/>
-    <col width="15" customWidth="1" min="2752" max="2752"/>
-    <col width="15" customWidth="1" min="2753" max="2753"/>
-    <col width="15" customWidth="1" min="2754" max="2754"/>
-    <col width="25" customWidth="1" min="2755" max="2755"/>
-    <col width="15" customWidth="1" min="2756" max="2756"/>
-    <col width="15" customWidth="1" min="2757" max="2757"/>
-    <col width="15" customWidth="1" min="2758" max="2758"/>
-    <col width="15" customWidth="1" min="2759" max="2759"/>
-    <col width="15" customWidth="1" min="2760" max="2760"/>
-    <col width="15" customWidth="1" min="2761" max="2761"/>
-    <col width="15" customWidth="1" min="2762" max="2762"/>
-    <col width="15" customWidth="1" min="2763" max="2763"/>
-    <col width="15" customWidth="1" min="2764" max="2764"/>
-    <col width="15" customWidth="1" min="2765" max="2765"/>
-    <col width="15" customWidth="1" min="2766" max="2766"/>
-    <col width="25" customWidth="1" min="2767" max="2767"/>
-    <col width="15" customWidth="1" min="2768" max="2768"/>
-    <col width="15" customWidth="1" min="2769" max="2769"/>
-    <col width="15" customWidth="1" min="2770" max="2770"/>
-    <col width="15" customWidth="1" min="2771" max="2771"/>
-    <col width="15" customWidth="1" min="2772" max="2772"/>
-    <col width="15" customWidth="1" min="2773" max="2773"/>
-    <col width="15" customWidth="1" min="2774" max="2774"/>
-    <col width="15" customWidth="1" min="2775" max="2775"/>
-    <col width="15" customWidth="1" min="2776" max="2776"/>
-    <col width="15" customWidth="1" min="2777" max="2777"/>
-    <col width="15" customWidth="1" min="2778" max="2778"/>
-    <col width="25" customWidth="1" min="2779" max="2779"/>
-    <col width="15" customWidth="1" min="2780" max="2780"/>
-    <col width="15" customWidth="1" min="2781" max="2781"/>
-    <col width="15" customWidth="1" min="2782" max="2782"/>
-    <col width="15" customWidth="1" min="2783" max="2783"/>
-    <col width="15" customWidth="1" min="2784" max="2784"/>
-    <col width="15" customWidth="1" min="2785" max="2785"/>
-    <col width="15" customWidth="1" min="2786" max="2786"/>
-    <col width="15" customWidth="1" min="2787" max="2787"/>
-    <col width="15" customWidth="1" min="2788" max="2788"/>
-    <col width="15" customWidth="1" min="2789" max="2789"/>
-    <col width="15" customWidth="1" min="2790" max="2790"/>
-    <col width="25" customWidth="1" min="2791" max="2791"/>
-    <col width="15" customWidth="1" min="2792" max="2792"/>
-    <col width="15" customWidth="1" min="2793" max="2793"/>
-    <col width="15" customWidth="1" min="2794" max="2794"/>
-    <col width="15" customWidth="1" min="2795" max="2795"/>
-    <col width="15" customWidth="1" min="2796" max="2796"/>
-    <col width="15" customWidth="1" min="2797" max="2797"/>
-    <col width="15" customWidth="1" min="2798" max="2798"/>
-    <col width="15" customWidth="1" min="2799" max="2799"/>
-    <col width="15" customWidth="1" min="2800" max="2800"/>
-    <col width="15" customWidth="1" min="2801" max="2801"/>
-    <col width="15" customWidth="1" min="2802" max="2802"/>
-    <col width="25" customWidth="1" min="2803" max="2803"/>
-    <col width="15" customWidth="1" min="2804" max="2804"/>
-    <col width="15" customWidth="1" min="2805" max="2805"/>
-    <col width="15" customWidth="1" min="2806" max="2806"/>
-    <col width="15" customWidth="1" min="2807" max="2807"/>
-    <col width="15" customWidth="1" min="2808" max="2808"/>
-    <col width="15" customWidth="1" min="2809" max="2809"/>
-    <col width="15" customWidth="1" min="2810" max="2810"/>
-    <col width="15" customWidth="1" min="2811" max="2811"/>
-    <col width="15" customWidth="1" min="2812" max="2812"/>
-    <col width="15" customWidth="1" min="2813" max="2813"/>
-    <col width="15" customWidth="1" min="2814" max="2814"/>
-    <col width="25" customWidth="1" min="2815" max="2815"/>
-    <col width="15" customWidth="1" min="2816" max="2816"/>
-    <col width="15" customWidth="1" min="2817" max="2817"/>
-    <col width="15" customWidth="1" min="2818" max="2818"/>
-    <col width="15" customWidth="1" min="2819" max="2819"/>
-    <col width="15" customWidth="1" min="2820" max="2820"/>
-    <col width="15" customWidth="1" min="2821" max="2821"/>
-    <col width="15" customWidth="1" min="2822" max="2822"/>
-    <col width="15" customWidth="1" min="2823" max="2823"/>
-    <col width="15" customWidth="1" min="2824" max="2824"/>
-    <col width="15" customWidth="1" min="2825" max="2825"/>
-    <col width="15" customWidth="1" min="2826" max="2826"/>
-    <col width="25" customWidth="1" min="2827" max="2827"/>
-    <col width="15" customWidth="1" min="2828" max="2828"/>
-    <col width="15" customWidth="1" min="2829" max="2829"/>
-    <col width="15" customWidth="1" min="2830" max="2830"/>
-    <col width="15" customWidth="1" min="2831" max="2831"/>
-    <col width="15" customWidth="1" min="2832" max="2832"/>
-    <col width="15" customWidth="1" min="2833" max="2833"/>
-    <col width="15" customWidth="1" min="2834" max="2834"/>
-    <col width="15" customWidth="1" min="2835" max="2835"/>
-    <col width="15" customWidth="1" min="2836" max="2836"/>
-    <col width="15" customWidth="1" min="2837" max="2837"/>
-    <col width="15" customWidth="1" min="2838" max="2838"/>
-    <col width="25" customWidth="1" min="2839" max="2839"/>
-    <col width="15" customWidth="1" min="2840" max="2840"/>
-    <col width="15" customWidth="1" min="2841" max="2841"/>
-    <col width="15" customWidth="1" min="2842" max="2842"/>
-    <col width="15" customWidth="1" min="2843" max="2843"/>
-    <col width="15" customWidth="1" min="2844" max="2844"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3319,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>345</v>
+        <v>34504149</v>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
@@ -3586,14 +3454,20 @@
       <c r="A7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
@@ -3605,11 +3479,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2000</v>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -5579,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34</v>
+        <v>34504149</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
@@ -7548,8 +7426,10 @@
       <c r="G73" t="n">
         <v>0</v>
       </c>
-      <c r="H73" t="n">
-        <v>34534</v>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I73" s="3" t="inlineStr">
         <is>
@@ -15014,7 +14894,7 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="n">
-        <v>297</v>
+        <v>234235</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -15038,8 +14918,10 @@
       <c r="G198" t="n">
         <v>0</v>
       </c>
-      <c r="H198" t="n">
-        <v>34554</v>
+      <c r="H198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I198" s="3" t="inlineStr">
         <is>
@@ -15064,7 +14946,7 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="n">
-        <v>555</v>
+        <v>234272</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -15088,8 +14970,10 @@
       <c r="G199" t="n">
         <v>0</v>
       </c>
-      <c r="H199" t="n">
-        <v>123123</v>
+      <c r="H199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I199" s="3" t="inlineStr">
         <is>
@@ -15114,7 +14998,7 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="n">
-        <v>234270</v>
+        <v>324</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -15138,8 +15022,10 @@
       <c r="G200" t="n">
         <v>0</v>
       </c>
-      <c r="H200" t="n">
-        <v>234234</v>
+      <c r="H200" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I200" s="3" t="inlineStr">
         <is>
@@ -15164,60 +15050,52 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="n">
-        <v>145</v>
+        <v>90000</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F201" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-36</v>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>425</v>
+      </c>
+      <c r="F201" t="n">
+        <v>506</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>-177</v>
       </c>
       <c r="H201" t="n">
-        <v>1234124</v>
-      </c>
-      <c r="I201" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J201" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K201" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L201" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>183</v>
+      </c>
+      <c r="I201" t="n">
+        <v>5</v>
+      </c>
+      <c r="J201" t="n">
+        <v>506</v>
+      </c>
+      <c r="K201" t="n">
+        <v>219</v>
+      </c>
+      <c r="L201" s="5" t="n">
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="4" t="n">
-        <v>90000</v>
+        <v>90001</v>
       </c>
       <c r="B202" t="n">
-        <v>-489</v>
+        <v>-41</v>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
@@ -15230,36 +15108,36 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-214</v>
+        <v>103</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G202" t="n">
-        <v>-54</v>
+        <v>-77</v>
       </c>
       <c r="H202" t="n">
-        <v>1003</v>
+        <v>1034</v>
       </c>
       <c r="I202" t="n">
-        <v>-72</v>
+        <v>-175</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K202" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="L202" s="5" t="n">
-        <v>44274.53299768519</v>
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="n">
-        <v>90001</v>
+        <v>90002</v>
       </c>
       <c r="B203" t="n">
-        <v>526</v>
+        <v>5</v>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
@@ -15272,136 +15150,120 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-799</v>
+        <v>-149</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>-153</v>
+        <v>-193</v>
       </c>
       <c r="H203" t="n">
-        <v>798</v>
+        <v>645</v>
       </c>
       <c r="I203" t="n">
-        <v>-39</v>
+        <v>-125</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="L203" s="5" t="n">
-        <v>44274.53299768519</v>
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="4" t="n">
-        <v>1232</v>
+        <v>90003</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
-      </c>
-      <c r="E204" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F204" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>533</v>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>154</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>-224</v>
       </c>
       <c r="H204" t="n">
-        <v>23423</v>
-      </c>
-      <c r="I204" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J204" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K204" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L204" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>747</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-182</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2</v>
+      </c>
+      <c r="K204" t="n">
+        <v>62</v>
+      </c>
+      <c r="L204" s="5" t="n">
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="n">
-        <v>234265</v>
+        <v>90004</v>
       </c>
       <c r="B205" t="n">
+        <v>303</v>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>-272</v>
+      </c>
+      <c r="F205" t="n">
         <v>0</v>
       </c>
-      <c r="C205" t="n">
+      <c r="G205" t="n">
+        <v>-294</v>
+      </c>
+      <c r="H205" t="n">
+        <v>781</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-192</v>
+      </c>
+      <c r="J205" t="n">
         <v>0</v>
       </c>
-      <c r="D205" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F205" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H205" t="n">
-        <v>45343</v>
-      </c>
-      <c r="I205" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J205" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K205" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L205" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K205" t="n">
+        <v>53</v>
+      </c>
+      <c r="L205" s="5" t="n">
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="4" t="n">
-        <v>90002</v>
+        <v>90005</v>
       </c>
       <c r="B206" t="n">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
@@ -15414,36 +15276,36 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1094</v>
+        <v>-697</v>
       </c>
       <c r="F206" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>-182</v>
+        <v>-30</v>
       </c>
       <c r="H206" t="n">
-        <v>459</v>
+        <v>991</v>
       </c>
       <c r="I206" t="n">
-        <v>-166</v>
+        <v>-191</v>
       </c>
       <c r="J206" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L206" s="5" t="n">
-        <v>44274.53299768519</v>
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="n">
-        <v>234275</v>
+        <v>234282</v>
       </c>
       <c r="B207" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -15451,8 +15313,10 @@
       <c r="D207" t="n">
         <v>0</v>
       </c>
-      <c r="E207" t="n">
-        <v>100</v>
+      <c r="E207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
@@ -15460,19 +15324,27 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>-50</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I207" t="n">
-        <v>30</v>
-      </c>
-      <c r="J207" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K207" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L207" s="3" t="inlineStr">
         <is>
@@ -15482,10 +15354,10 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="n">
-        <v>90003</v>
+        <v>90008</v>
       </c>
       <c r="B208" t="n">
-        <v>562</v>
+        <v>-571</v>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
@@ -15498,58 +15370,58 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>364</v>
+        <v>466</v>
       </c>
       <c r="F208" t="n">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="G208" t="n">
-        <v>-353</v>
+        <v>-355</v>
       </c>
       <c r="H208" t="n">
-        <v>961</v>
+        <v>25</v>
       </c>
       <c r="I208" t="n">
-        <v>-142</v>
+        <v>30</v>
       </c>
       <c r="J208" t="n">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="K208" t="n">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="L208" s="5" t="n">
-        <v>44274.53300925926</v>
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="n">
-        <v>2121</v>
+        <v>234276</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
+        <v>-175</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
         <v>0</v>
       </c>
-      <c r="D209" t="n">
+      <c r="G209" t="n">
         <v>0</v>
       </c>
-      <c r="E209" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F209" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
-        <v>15570</v>
-      </c>
-      <c r="H209" t="n">
-        <v>234234</v>
+      <c r="H209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I209" s="3" t="inlineStr">
         <is>
@@ -15574,52 +15446,60 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="n">
-        <v>90004</v>
+        <v>444</v>
       </c>
       <c r="B210" t="n">
-        <v>116</v>
-      </c>
-      <c r="C210" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D210" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>-946</v>
-      </c>
-      <c r="F210" t="n">
         <v>0</v>
       </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>-112</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>1091</v>
-      </c>
-      <c r="I210" t="n">
-        <v>-67</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0</v>
-      </c>
-      <c r="K210" t="n">
-        <v>30</v>
-      </c>
-      <c r="L210" s="5" t="n">
-        <v>44274.53300925926</v>
+        <v>34504148</v>
+      </c>
+      <c r="I210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="n">
-        <v>90005</v>
+        <v>90006</v>
       </c>
       <c r="B211" t="n">
-        <v>142</v>
+        <v>-372</v>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
@@ -15632,83 +15512,75 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-419</v>
+        <v>385</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="G211" t="n">
-        <v>-348</v>
+        <v>-204</v>
       </c>
       <c r="H211" t="n">
-        <v>847</v>
+        <v>718</v>
       </c>
       <c r="I211" t="n">
-        <v>-57</v>
+        <v>-140</v>
       </c>
       <c r="J211" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="K211" t="n">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="L211" s="5" t="n">
-        <v>44274.53300925926</v>
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="4" t="n">
-        <v>324</v>
+        <v>90007</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F212" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>116</v>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>392</v>
+      </c>
+      <c r="F212" t="n">
+        <v>75</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>-334</v>
       </c>
       <c r="H212" t="n">
-        <v>2342342</v>
-      </c>
-      <c r="I212" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J212" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K212" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L212" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1040</v>
+      </c>
+      <c r="I212" t="n">
+        <v>-199</v>
+      </c>
+      <c r="J212" t="n">
+        <v>75</v>
+      </c>
+      <c r="K212" t="n">
+        <v>21</v>
+      </c>
+      <c r="L212" s="5" t="n">
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="n">
-        <v>234258</v>
+        <v>234268</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -15732,8 +15604,10 @@
       <c r="G213" t="n">
         <v>0</v>
       </c>
-      <c r="H213" t="n">
-        <v>234234</v>
+      <c r="H213" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I213" s="3" t="inlineStr">
         <is>
@@ -15758,7 +15632,7 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="n">
-        <v>234249</v>
+        <v>152</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -15783,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>234234</v>
+        <v>0</v>
       </c>
       <c r="I214" s="3" t="inlineStr">
         <is>
@@ -15808,7 +15682,7 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="n">
-        <v>295</v>
+        <v>234270</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -15832,8 +15706,10 @@
       <c r="G215" t="n">
         <v>0</v>
       </c>
-      <c r="H215" t="n">
-        <v>23423</v>
+      <c r="H215" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I215" s="3" t="inlineStr">
         <is>
@@ -15858,7 +15734,7 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="n">
-        <v>789987</v>
+        <v>234273</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -15883,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>34504148</v>
       </c>
       <c r="I216" s="3" t="inlineStr">
         <is>
@@ -15908,99 +15784,101 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="n">
-        <v>90006</v>
+        <v>234265</v>
       </c>
       <c r="B217" t="n">
-        <v>299</v>
-      </c>
-      <c r="C217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>164</v>
-      </c>
-      <c r="F217" t="n">
-        <v>666</v>
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G217" t="n">
-        <v>-528</v>
-      </c>
-      <c r="H217" t="n">
-        <v>85</v>
-      </c>
-      <c r="I217" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J217" t="n">
-        <v>666</v>
-      </c>
-      <c r="K217" t="n">
-        <v>1</v>
-      </c>
-      <c r="L217" s="5" t="n">
-        <v>44274.53300925926</v>
+        <v>0</v>
+      </c>
+      <c r="H217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="4" t="n">
-        <v>1231</v>
+        <v>90009</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F218" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>488</v>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>60</v>
+      </c>
+      <c r="F218" t="n">
+        <v>323</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="H218" t="n">
-        <v>4124</v>
-      </c>
-      <c r="I218" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J218" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K218" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L218" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>892</v>
+      </c>
+      <c r="I218" t="n">
+        <v>-61</v>
+      </c>
+      <c r="J218" t="n">
+        <v>323</v>
+      </c>
+      <c r="K218" t="n">
+        <v>230</v>
+      </c>
+      <c r="L218" s="5" t="n">
+        <v>44278.73576388889</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="4" t="n">
-        <v>9999</v>
+        <v>234266</v>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -16024,8 +15902,10 @@
       <c r="G219" t="n">
         <v>0</v>
       </c>
-      <c r="H219" t="n">
-        <v>12523</v>
+      <c r="H219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I219" s="3" t="inlineStr">
         <is>
@@ -16050,91 +15930,109 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="n">
-        <v>90007</v>
+        <v>2121</v>
       </c>
       <c r="B220" t="n">
-        <v>172</v>
-      </c>
-      <c r="C220" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D220" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E220" t="n">
-        <v>213</v>
-      </c>
-      <c r="F220" t="n">
-        <v>119</v>
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G220" t="n">
-        <v>-235</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>923</v>
-      </c>
-      <c r="I220" t="n">
-        <v>-118</v>
-      </c>
-      <c r="J220" t="n">
-        <v>119</v>
-      </c>
-      <c r="K220" t="n">
-        <v>183</v>
-      </c>
-      <c r="L220" s="5" t="n">
-        <v>44274.53300925926</v>
+        <v>34504148</v>
+      </c>
+      <c r="I220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="n">
-        <v>90009</v>
+        <v>234258</v>
       </c>
       <c r="B221" t="n">
-        <v>326</v>
-      </c>
-      <c r="C221" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D221" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>200</v>
-      </c>
-      <c r="F221" t="n">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G221" t="n">
-        <v>-163</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1001</v>
-      </c>
-      <c r="I221" t="n">
-        <v>-186</v>
-      </c>
-      <c r="J221" t="n">
-        <v>136</v>
-      </c>
-      <c r="K221" t="n">
-        <v>38</v>
-      </c>
-      <c r="L221" s="5" t="n">
-        <v>44274.53300925926</v>
+        <v>0</v>
+      </c>
+      <c r="H221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="4" t="n">
-        <v>234268</v>
+        <v>234274</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -16159,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>23423</v>
+        <v>34504149</v>
       </c>
       <c r="I222" s="3" t="inlineStr">
         <is>
@@ -16184,7 +16082,7 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="n">
-        <v>1234</v>
+        <v>789</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -16209,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>2141234</v>
+        <v>34504149</v>
       </c>
       <c r="I223" s="3" t="inlineStr">
         <is>
@@ -16234,49 +16132,47 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="n">
-        <v>90008</v>
+        <v>234275</v>
       </c>
       <c r="B224" t="n">
-        <v>-278</v>
-      </c>
-      <c r="C224" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D224" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-380</v>
+        <v>100</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
       </c>
-      <c r="G224" t="n">
-        <v>-216</v>
+      <c r="G224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H224" t="n">
-        <v>1030</v>
+        <v>2000</v>
       </c>
       <c r="I224" t="n">
-        <v>-17</v>
+        <v>30</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K224" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L224" s="5" t="n">
-        <v>44274.53300925926</v>
+        <v>44278.57729166667</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="n">
-        <v>234274</v>
+        <v>234249</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -16300,8 +16196,10 @@
       <c r="G225" t="n">
         <v>0</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
+      <c r="H225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I225" s="3" t="inlineStr">
         <is>
@@ -16326,7 +16224,7 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="n">
-        <v>345</v>
+        <v>6483</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -16350,8 +16248,10 @@
       <c r="G226" t="n">
         <v>0</v>
       </c>
-      <c r="H226" t="n">
-        <v>42345</v>
+      <c r="H226" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I226" s="3" t="inlineStr">
         <is>
@@ -16369,546 +16269,6 @@
         </is>
       </c>
       <c r="L226" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="4" t="n">
-        <v>12345</v>
-      </c>
-      <c r="B227" t="n">
-        <v>0</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
-        <v>0</v>
-      </c>
-      <c r="H227" t="n">
-        <v>34232</v>
-      </c>
-      <c r="I227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L227" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="4" t="n">
-        <v>234273</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-100</v>
-      </c>
-      <c r="C228" t="n">
-        <v>100</v>
-      </c>
-      <c r="D228" t="n">
-        <v>100</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" t="n">
-        <v>50</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-      <c r="H228" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>50</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0</v>
-      </c>
-      <c r="L228" s="5" t="n">
-        <v>44273.81173611111</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="4" t="n">
-        <v>111111</v>
-      </c>
-      <c r="B229" t="n">
-        <v>0</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0</v>
-      </c>
-      <c r="E229" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F229" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G229" t="n">
-        <v>0</v>
-      </c>
-      <c r="H229" t="n">
-        <v>345</v>
-      </c>
-      <c r="I229" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J229" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K229" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L229" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="4" t="n">
-        <v>444</v>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0</v>
-      </c>
-      <c r="E230" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F230" t="n">
-        <v>0</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-500</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J230" t="n">
-        <v>-500</v>
-      </c>
-      <c r="K230" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L230" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="4" t="n">
-        <v>234235</v>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-      <c r="C231" t="n">
-        <v>0</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0</v>
-      </c>
-      <c r="E231" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F231" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G231" t="n">
-        <v>0</v>
-      </c>
-      <c r="H231" t="n">
-        <v>34534</v>
-      </c>
-      <c r="I231" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J231" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K231" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L231" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="4" t="n">
-        <v>234282</v>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E232" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F232" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
-        <v>0</v>
-      </c>
-      <c r="H232" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I232" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J232" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K232" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L232" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="4" t="n">
-        <v>234272</v>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F233" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
-        <v>0</v>
-      </c>
-      <c r="H233" t="n">
-        <v>23423</v>
-      </c>
-      <c r="I233" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J233" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K233" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L233" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="4" t="n">
-        <v>234276</v>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0</v>
-      </c>
-      <c r="D234" t="n">
-        <v>56</v>
-      </c>
-      <c r="E234" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F234" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J234" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K234" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L234" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="4" t="n">
-        <v>152</v>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0</v>
-      </c>
-      <c r="E235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
-        <v>0</v>
-      </c>
-      <c r="H235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L235" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="4" t="n">
-        <v>1233</v>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0</v>
-      </c>
-      <c r="E236" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F236" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
-        <v>0</v>
-      </c>
-      <c r="H236" t="n">
-        <v>412412</v>
-      </c>
-      <c r="I236" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J236" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K236" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L236" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="4" t="n">
-        <v>234266</v>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-      <c r="C237" t="n">
-        <v>0</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0</v>
-      </c>
-      <c r="E237" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F237" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
-        <v>0</v>
-      </c>
-      <c r="H237" t="n">
-        <v>4533</v>
-      </c>
-      <c r="I237" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J237" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K237" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L237" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/base/data_set/all_users_data.xlsx
+++ b/base/data_set/all_users_data.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <name val="Calibri"/>
@@ -64,7 +62,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -74,7 +72,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -376,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,6 +3093,30 @@
     <col width="15" customWidth="1" min="2710" max="2710"/>
     <col width="15" customWidth="1" min="2711" max="2711"/>
     <col width="15" customWidth="1" min="2712" max="2712"/>
+    <col width="15" customWidth="1" min="2713" max="2713"/>
+    <col width="15" customWidth="1" min="2714" max="2714"/>
+    <col width="15" customWidth="1" min="2715" max="2715"/>
+    <col width="15" customWidth="1" min="2716" max="2716"/>
+    <col width="15" customWidth="1" min="2717" max="2717"/>
+    <col width="15" customWidth="1" min="2718" max="2718"/>
+    <col width="25" customWidth="1" min="2719" max="2719"/>
+    <col width="15" customWidth="1" min="2720" max="2720"/>
+    <col width="15" customWidth="1" min="2721" max="2721"/>
+    <col width="15" customWidth="1" min="2722" max="2722"/>
+    <col width="15" customWidth="1" min="2723" max="2723"/>
+    <col width="15" customWidth="1" min="2724" max="2724"/>
+    <col width="15" customWidth="1" min="2725" max="2725"/>
+    <col width="15" customWidth="1" min="2726" max="2726"/>
+    <col width="15" customWidth="1" min="2727" max="2727"/>
+    <col width="15" customWidth="1" min="2728" max="2728"/>
+    <col width="15" customWidth="1" min="2729" max="2729"/>
+    <col width="15" customWidth="1" min="2730" max="2730"/>
+    <col width="25" customWidth="1" min="2731" max="2731"/>
+    <col width="15" customWidth="1" min="2732" max="2732"/>
+    <col width="15" customWidth="1" min="2733" max="2733"/>
+    <col width="15" customWidth="1" min="2734" max="2734"/>
+    <col width="15" customWidth="1" min="2735" max="2735"/>
+    <col width="15" customWidth="1" min="2736" max="2736"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3187,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34504149</v>
+        <v>345</v>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
@@ -3454,20 +3475,14 @@
       <c r="A7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
@@ -3479,15 +3494,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2000</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -5457,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34504149</v>
+        <v>34</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
@@ -7426,10 +7437,8 @@
       <c r="G73" t="n">
         <v>0</v>
       </c>
-      <c r="H73" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H73" t="n">
+        <v>34534</v>
       </c>
       <c r="I73" s="3" t="inlineStr">
         <is>
@@ -14894,7 +14903,7 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="n">
-        <v>234235</v>
+        <v>234273</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -14918,10 +14927,8 @@
       <c r="G198" t="n">
         <v>0</v>
       </c>
-      <c r="H198" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H198" t="n">
+        <v>0</v>
       </c>
       <c r="I198" s="3" t="inlineStr">
         <is>
@@ -14946,10 +14953,10 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="n">
-        <v>234272</v>
+        <v>234275</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -14957,10 +14964,8 @@
       <c r="D199" t="n">
         <v>0</v>
       </c>
-      <c r="E199" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E199" t="n">
+        <v>100</v>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
@@ -14968,27 +14973,19 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I199" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J199" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K199" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-50</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I199" t="n">
+        <v>30</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K199" t="n">
+        <v>5</v>
       </c>
       <c r="L199" s="3" t="inlineStr">
         <is>
@@ -14998,7 +14995,7 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="n">
-        <v>324</v>
+        <v>234249</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -15022,10 +15019,8 @@
       <c r="G200" t="n">
         <v>0</v>
       </c>
-      <c r="H200" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H200" t="n">
+        <v>234234</v>
       </c>
       <c r="I200" s="3" t="inlineStr">
         <is>
@@ -15050,262 +15045,310 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="n">
-        <v>90000</v>
+        <v>345</v>
       </c>
       <c r="B201" t="n">
-        <v>-36</v>
-      </c>
-      <c r="C201" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D201" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>425</v>
-      </c>
-      <c r="F201" t="n">
-        <v>506</v>
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G201" t="n">
-        <v>-177</v>
+        <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>183</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5</v>
-      </c>
-      <c r="J201" t="n">
-        <v>506</v>
-      </c>
-      <c r="K201" t="n">
-        <v>219</v>
-      </c>
-      <c r="L201" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>42345</v>
+      </c>
+      <c r="I201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="4" t="n">
-        <v>90001</v>
+        <v>555</v>
       </c>
       <c r="B202" t="n">
-        <v>-41</v>
-      </c>
-      <c r="C202" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D202" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>103</v>
-      </c>
-      <c r="F202" t="n">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G202" t="n">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>1034</v>
-      </c>
-      <c r="I202" t="n">
-        <v>-175</v>
-      </c>
-      <c r="J202" t="n">
-        <v>81</v>
-      </c>
-      <c r="K202" t="n">
-        <v>86</v>
-      </c>
-      <c r="L202" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>123123</v>
+      </c>
+      <c r="I202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="n">
-        <v>90002</v>
+        <v>297</v>
       </c>
       <c r="B203" t="n">
-        <v>5</v>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D203" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>-149</v>
-      </c>
-      <c r="F203" t="n">
         <v>0</v>
       </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>-193</v>
+        <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>645</v>
-      </c>
-      <c r="I203" t="n">
-        <v>-125</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0</v>
-      </c>
-      <c r="K203" t="n">
-        <v>69</v>
-      </c>
-      <c r="L203" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>33777</v>
+      </c>
+      <c r="I203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="4" t="n">
-        <v>90003</v>
+        <v>145</v>
       </c>
       <c r="B204" t="n">
-        <v>533</v>
-      </c>
-      <c r="C204" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D204" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>154</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G204" t="n">
-        <v>-224</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>747</v>
-      </c>
-      <c r="I204" t="n">
-        <v>-182</v>
-      </c>
-      <c r="J204" t="n">
-        <v>2</v>
-      </c>
-      <c r="K204" t="n">
-        <v>62</v>
-      </c>
-      <c r="L204" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>1234124</v>
+      </c>
+      <c r="I204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="n">
-        <v>90004</v>
+        <v>234270</v>
       </c>
       <c r="B205" t="n">
-        <v>303</v>
-      </c>
-      <c r="C205" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D205" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>-272</v>
-      </c>
-      <c r="F205" t="n">
         <v>0</v>
       </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>300</v>
+      </c>
+      <c r="E205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>-294</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>781</v>
-      </c>
-      <c r="I205" t="n">
-        <v>-192</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0</v>
-      </c>
-      <c r="K205" t="n">
-        <v>53</v>
-      </c>
-      <c r="L205" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>234234</v>
+      </c>
+      <c r="I205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="4" t="n">
-        <v>90005</v>
+        <v>1232</v>
       </c>
       <c r="B206" t="n">
-        <v>40</v>
-      </c>
-      <c r="C206" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D206" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>-697</v>
-      </c>
-      <c r="F206" t="n">
         <v>0</v>
       </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>991</v>
-      </c>
-      <c r="I206" t="n">
-        <v>-191</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0</v>
-      </c>
-      <c r="K206" t="n">
-        <v>148</v>
-      </c>
-      <c r="L206" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>23423</v>
+      </c>
+      <c r="I206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="n">
-        <v>234282</v>
+        <v>234276</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -15324,12 +15367,10 @@
         </is>
       </c>
       <c r="G207" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H207" t="n">
         <v>0</v>
-      </c>
-      <c r="H207" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="I207" s="3" t="inlineStr">
         <is>
@@ -15354,74 +15395,82 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="n">
-        <v>90008</v>
+        <v>90000</v>
       </c>
       <c r="B208" t="n">
-        <v>-571</v>
-      </c>
-      <c r="C208" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D208" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>466</v>
-      </c>
-      <c r="F208" t="n">
-        <v>78</v>
+        <v>-154</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-77</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-519</v>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G208" t="n">
-        <v>-355</v>
+        <v>-77</v>
       </c>
       <c r="H208" t="n">
-        <v>25</v>
-      </c>
-      <c r="I208" t="n">
-        <v>30</v>
-      </c>
-      <c r="J208" t="n">
-        <v>78</v>
-      </c>
-      <c r="K208" t="n">
-        <v>24</v>
-      </c>
-      <c r="L208" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>464</v>
+      </c>
+      <c r="I208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="n">
-        <v>234276</v>
+        <v>1231</v>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>-175</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F209" t="n">
-        <v>0</v>
+      <c r="F209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G209" t="n">
         <v>0</v>
       </c>
-      <c r="H209" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H209" t="n">
+        <v>4124</v>
       </c>
       <c r="I209" s="3" t="inlineStr">
         <is>
@@ -15446,7 +15495,7 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="n">
-        <v>444</v>
+        <v>295</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -15471,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>34504148</v>
+        <v>23423</v>
       </c>
       <c r="I210" s="3" t="inlineStr">
         <is>
@@ -15496,91 +15545,107 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="n">
-        <v>90006</v>
+        <v>234265</v>
       </c>
       <c r="B211" t="n">
-        <v>-372</v>
-      </c>
-      <c r="C211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D211" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>385</v>
-      </c>
-      <c r="F211" t="n">
-        <v>222</v>
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G211" t="n">
-        <v>-204</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>718</v>
-      </c>
-      <c r="I211" t="n">
-        <v>-140</v>
-      </c>
-      <c r="J211" t="n">
-        <v>222</v>
-      </c>
-      <c r="K211" t="n">
-        <v>270</v>
-      </c>
-      <c r="L211" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>45343</v>
+      </c>
+      <c r="I211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="4" t="n">
-        <v>90007</v>
+        <v>324</v>
       </c>
       <c r="B212" t="n">
-        <v>116</v>
-      </c>
-      <c r="C212" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D212" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>392</v>
-      </c>
-      <c r="F212" t="n">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G212" t="n">
-        <v>-334</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>1040</v>
-      </c>
-      <c r="I212" t="n">
-        <v>-199</v>
-      </c>
-      <c r="J212" t="n">
-        <v>75</v>
-      </c>
-      <c r="K212" t="n">
-        <v>21</v>
-      </c>
-      <c r="L212" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>2342342</v>
+      </c>
+      <c r="I212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="n">
-        <v>234268</v>
+        <v>234258</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -15604,10 +15669,8 @@
       <c r="G213" t="n">
         <v>0</v>
       </c>
-      <c r="H213" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H213" t="n">
+        <v>234234</v>
       </c>
       <c r="I213" s="3" t="inlineStr">
         <is>
@@ -15632,7 +15695,7 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="n">
-        <v>152</v>
+        <v>2121</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -15657,7 +15720,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>234234</v>
       </c>
       <c r="I214" s="3" t="inlineStr">
         <is>
@@ -15682,7 +15745,7 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="n">
-        <v>234270</v>
+        <v>789987</v>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -15706,10 +15769,8 @@
       <c r="G215" t="n">
         <v>0</v>
       </c>
-      <c r="H215" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H215" t="n">
+        <v>0</v>
       </c>
       <c r="I215" s="3" t="inlineStr">
         <is>
@@ -15734,7 +15795,7 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="n">
-        <v>234273</v>
+        <v>9999</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -15759,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>34504148</v>
+        <v>12523</v>
       </c>
       <c r="I216" s="3" t="inlineStr">
         <is>
@@ -15784,7 +15845,7 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="n">
-        <v>234265</v>
+        <v>234268</v>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -15808,10 +15869,8 @@
       <c r="G217" t="n">
         <v>0</v>
       </c>
-      <c r="H217" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H217" t="n">
+        <v>23423</v>
       </c>
       <c r="I217" s="3" t="inlineStr">
         <is>
@@ -15836,49 +15895,57 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="n">
-        <v>90009</v>
+        <v>1234</v>
       </c>
       <c r="B218" t="n">
-        <v>488</v>
-      </c>
-      <c r="C218" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D218" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>60</v>
-      </c>
-      <c r="F218" t="n">
-        <v>323</v>
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G218" t="n">
-        <v>-240</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>892</v>
-      </c>
-      <c r="I218" t="n">
-        <v>-61</v>
-      </c>
-      <c r="J218" t="n">
-        <v>323</v>
-      </c>
-      <c r="K218" t="n">
-        <v>230</v>
-      </c>
-      <c r="L218" s="5" t="n">
-        <v>44278.73576388889</v>
+        <v>2141234</v>
+      </c>
+      <c r="I218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="4" t="n">
-        <v>234266</v>
+        <v>12345</v>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -15902,10 +15969,8 @@
       <c r="G219" t="n">
         <v>0</v>
       </c>
-      <c r="H219" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H219" t="n">
+        <v>34232</v>
       </c>
       <c r="I219" s="3" t="inlineStr">
         <is>
@@ -15930,7 +15995,7 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="n">
-        <v>2121</v>
+        <v>234274</v>
       </c>
       <c r="B220" t="n">
         <v>0</v>
@@ -15955,7 +16020,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>34504148</v>
+        <v>0</v>
       </c>
       <c r="I220" s="3" t="inlineStr">
         <is>
@@ -15980,7 +16045,7 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="n">
-        <v>234258</v>
+        <v>444</v>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -16004,10 +16069,8 @@
       <c r="G221" t="n">
         <v>0</v>
       </c>
-      <c r="H221" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H221" t="n">
+        <v>0</v>
       </c>
       <c r="I221" s="3" t="inlineStr">
         <is>
@@ -16032,7 +16095,7 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="n">
-        <v>234274</v>
+        <v>111111</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -16057,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>34504149</v>
+        <v>345</v>
       </c>
       <c r="I222" s="3" t="inlineStr">
         <is>
@@ -16082,7 +16145,7 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="n">
-        <v>789</v>
+        <v>234235</v>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -16107,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>34504149</v>
+        <v>34534</v>
       </c>
       <c r="I223" s="3" t="inlineStr">
         <is>
@@ -16132,7 +16195,7 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="n">
-        <v>234275</v>
+        <v>234282</v>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -16143,36 +16206,48 @@
       <c r="D224" t="n">
         <v>0</v>
       </c>
-      <c r="E224" t="n">
-        <v>100</v>
-      </c>
-      <c r="F224" t="n">
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
         <v>0</v>
       </c>
-      <c r="G224" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H224" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K224" t="n">
-        <v>5</v>
-      </c>
-      <c r="L224" s="5" t="n">
-        <v>44278.57729166667</v>
+      <c r="H224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="n">
-        <v>234249</v>
+        <v>234272</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -16196,10 +16271,8 @@
       <c r="G225" t="n">
         <v>0</v>
       </c>
-      <c r="H225" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H225" t="n">
+        <v>23423</v>
       </c>
       <c r="I225" s="3" t="inlineStr">
         <is>
@@ -16224,7 +16297,7 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="n">
-        <v>6483</v>
+        <v>152</v>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -16269,6 +16342,106 @@
         </is>
       </c>
       <c r="L226" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F227" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>412412</v>
+      </c>
+      <c r="I227" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J227" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K227" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L227" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="4" t="n">
+        <v>234266</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F228" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>4533</v>
+      </c>
+      <c r="I228" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J228" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K228" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L228" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/base/data_set/all_users_data.xlsx
+++ b/base/data_set/all_users_data.xlsx
@@ -1944,41 +1944,37 @@
         <v>90000</v>
       </c>
       <c r="B21" t="n">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-431</v>
+        <v>532</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>-456</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>273</v>
+        <v>1114</v>
       </c>
       <c r="I21" t="n">
-        <v>-5</v>
+        <v>-125</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.125</v>
       </c>
     </row>
     <row r="22">
@@ -1986,41 +1982,37 @@
         <v>90001</v>
       </c>
       <c r="B22" t="n">
-        <v>-77</v>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-595</v>
       </c>
       <c r="E22" t="n">
-        <v>640</v>
+        <v>-595</v>
       </c>
       <c r="F22" t="n">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-458</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>19</v>
+        <v>1062</v>
       </c>
       <c r="I22" t="n">
-        <v>146</v>
+        <v>-187</v>
       </c>
       <c r="J22" t="n">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="23">
@@ -2028,41 +2020,37 @@
         <v>90002</v>
       </c>
       <c r="B23" t="n">
-        <v>118</v>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-953</v>
       </c>
       <c r="E23" t="n">
-        <v>79</v>
+        <v>-953</v>
       </c>
       <c r="F23" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-359</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>687</v>
+        <v>15</v>
       </c>
       <c r="I23" t="n">
-        <v>-44</v>
+        <v>-1</v>
       </c>
       <c r="J23" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="24">
@@ -2070,41 +2058,37 @@
         <v>90003</v>
       </c>
       <c r="B24" t="n">
-        <v>481</v>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-152</v>
       </c>
       <c r="E24" t="n">
-        <v>57</v>
+        <v>-152</v>
       </c>
       <c r="F24" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-262</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>838</v>
+        <v>893</v>
       </c>
       <c r="I24" t="n">
+        <v>-110</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>102</v>
       </c>
-      <c r="J24" t="n">
-        <v>208</v>
-      </c>
-      <c r="K24" t="n">
-        <v>103</v>
-      </c>
       <c r="L24" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="25">
@@ -2112,41 +2096,37 @@
         <v>90004</v>
       </c>
       <c r="B25" t="n">
-        <v>-183</v>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-768</v>
       </c>
       <c r="E25" t="n">
-        <v>237</v>
+        <v>-768</v>
       </c>
       <c r="F25" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-187</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>404</v>
+        <v>878</v>
       </c>
       <c r="I25" t="n">
-        <v>-62</v>
+        <v>-153</v>
       </c>
       <c r="J25" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="26">
@@ -2154,41 +2134,37 @@
         <v>90005</v>
       </c>
       <c r="B26" t="n">
-        <v>-456</v>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1081</v>
       </c>
       <c r="E26" t="n">
-        <v>-217</v>
+        <v>633</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="G26" t="n">
-        <v>-428</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>285</v>
+        <v>438</v>
       </c>
       <c r="I26" t="n">
-        <v>-104</v>
+        <v>-83</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="K26" t="n">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="27">
@@ -2196,41 +2172,37 @@
         <v>90006</v>
       </c>
       <c r="B27" t="n">
-        <v>-311</v>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>68</v>
       </c>
       <c r="E27" t="n">
-        <v>-792</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>-191</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1161</v>
+        <v>217</v>
       </c>
       <c r="I27" t="n">
-        <v>-5</v>
+        <v>-159</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="28">
@@ -2238,41 +2210,37 @@
         <v>90007</v>
       </c>
       <c r="B28" t="n">
-        <v>305</v>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1874</v>
       </c>
       <c r="E28" t="n">
-        <v>159</v>
+        <v>1652</v>
       </c>
       <c r="F28" t="n">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="G28" t="n">
-        <v>-154</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1030</v>
+        <v>761</v>
       </c>
       <c r="I28" t="n">
-        <v>-150</v>
+        <v>-190</v>
       </c>
       <c r="J28" t="n">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="K28" t="n">
-        <v>301</v>
+        <v>111</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="29">
@@ -2280,41 +2248,37 @@
         <v>90008</v>
       </c>
       <c r="B29" t="n">
-        <v>174</v>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-224</v>
       </c>
       <c r="E29" t="n">
-        <v>477</v>
+        <v>-224</v>
       </c>
       <c r="F29" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-267</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>730</v>
+        <v>230</v>
       </c>
       <c r="I29" t="n">
-        <v>-129</v>
+        <v>-10</v>
       </c>
       <c r="J29" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="30">
@@ -2322,41 +2286,37 @@
         <v>90009</v>
       </c>
       <c r="B30" t="n">
-        <v>-123</v>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>705</v>
       </c>
       <c r="E30" t="n">
-        <v>-274</v>
+        <v>653</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>956</v>
+        <v>128</v>
       </c>
       <c r="I30" t="n">
-        <v>-37</v>
+        <v>-96</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K30" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>44306.52725694444</v>
+        <v>44314.61393518518</v>
       </c>
     </row>
     <row r="31">
@@ -2814,7 +2774,7 @@
         <v>234273</v>
       </c>
       <c r="B40" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2833,7 +2793,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2959,10 +2919,10 @@
         <v>-30</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>

--- a/base/data_set/all_users_data.xlsx
+++ b/base/data_set/all_users_data.xlsx
@@ -1944,37 +1944,41 @@
         <v>90000</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
+        <v>413</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>532</v>
+        <v>-199</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>-304</v>
       </c>
       <c r="H21" t="n">
-        <v>1114</v>
+        <v>83</v>
       </c>
       <c r="I21" t="n">
-        <v>-125</v>
+        <v>-38</v>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>44314.125</v>
+        <v>44321.47105324074</v>
       </c>
     </row>
     <row r="22">
@@ -1982,37 +1986,41 @@
         <v>90001</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-595</v>
+        <v>-122</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>-595</v>
+        <v>1211</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-348</v>
       </c>
       <c r="H22" t="n">
-        <v>1062</v>
+        <v>949</v>
       </c>
       <c r="I22" t="n">
-        <v>-187</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="K22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="23">
@@ -2020,37 +2028,41 @@
         <v>90002</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-953</v>
+        <v>-80</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>-953</v>
+        <v>1522</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-165</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I23" t="n">
-        <v>-1</v>
+        <v>-35</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="24">
@@ -2058,37 +2070,41 @@
         <v>90003</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-152</v>
+        <v>-122</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>-152</v>
+        <v>-311</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>-294</v>
       </c>
       <c r="H24" t="n">
-        <v>893</v>
+        <v>1062</v>
       </c>
       <c r="I24" t="n">
-        <v>-110</v>
+        <v>-36</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="25">
@@ -2096,37 +2112,41 @@
         <v>90004</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-768</v>
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>-768</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="H25" t="n">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="I25" t="n">
-        <v>-153</v>
+        <v>66</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K25" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="26">
@@ -2134,37 +2154,41 @@
         <v>90005</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1081</v>
+        <v>103</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>633</v>
+        <v>686</v>
       </c>
       <c r="F26" t="n">
-        <v>165</v>
+        <v>478</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-255</v>
       </c>
       <c r="H26" t="n">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="I26" t="n">
-        <v>-83</v>
+        <v>148</v>
       </c>
       <c r="J26" t="n">
-        <v>165</v>
+        <v>478</v>
       </c>
       <c r="K26" t="n">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="27">
@@ -2172,37 +2196,41 @@
         <v>90006</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>68</v>
+        <v>-486</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>1777</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-245</v>
       </c>
       <c r="H27" t="n">
-        <v>217</v>
+        <v>1012</v>
       </c>
       <c r="I27" t="n">
-        <v>-159</v>
+        <v>-32</v>
       </c>
       <c r="J27" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K27" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="28">
@@ -2210,37 +2238,41 @@
         <v>90007</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1874</v>
+        <v>-291</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>1652</v>
+        <v>-612</v>
       </c>
       <c r="F28" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-569</v>
       </c>
       <c r="H28" t="n">
-        <v>761</v>
+        <v>588</v>
       </c>
       <c r="I28" t="n">
-        <v>-190</v>
+        <v>-35</v>
       </c>
       <c r="J28" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="29">
@@ -2248,37 +2280,41 @@
         <v>90008</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-224</v>
+        <v>-294</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>-224</v>
+        <v>623</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-331</v>
       </c>
       <c r="H29" t="n">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="I29" t="n">
-        <v>-10</v>
+        <v>-33</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="30">
@@ -2286,37 +2322,41 @@
         <v>90009</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>705</v>
+        <v>480</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>653</v>
+        <v>546</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-284</v>
       </c>
       <c r="H30" t="n">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="I30" t="n">
-        <v>-96</v>
+        <v>-113</v>
       </c>
       <c r="J30" t="n">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="K30" t="n">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>44314.61393518518</v>
+        <v>44321.47106481482</v>
       </c>
     </row>
     <row r="31">
@@ -2774,13 +2814,13 @@
         <v>234273</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
@@ -2793,7 +2833,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2887,8 +2927,10 @@
       <c r="E42" t="n">
         <v>100</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v>-50</v>
@@ -2916,13 +2958,13 @@
         <v>234276</v>
       </c>
       <c r="B43" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>-200</v>
       </c>
       <c r="D43" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
@@ -2935,7 +2977,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>

--- a/base/data_set/all_users_data.xlsx
+++ b/base/data_set/all_users_data.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,8 +401,8 @@
     <col width="15" customWidth="1" min="16" max="16"/>
     <col width="15" customWidth="1" min="17" max="17"/>
     <col width="15" customWidth="1" min="18" max="18"/>
-    <col width="25" customWidth="1" min="19" max="19"/>
-    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="25" customWidth="1" min="20" max="20"/>
     <col width="15" customWidth="1" min="21" max="21"/>
     <col width="15" customWidth="1" min="22" max="22"/>
     <col width="15" customWidth="1" min="23" max="23"/>
@@ -413,9 +413,9 @@
     <col width="15" customWidth="1" min="28" max="28"/>
     <col width="15" customWidth="1" min="29" max="29"/>
     <col width="15" customWidth="1" min="30" max="30"/>
-    <col width="25" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
     <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="25" customWidth="1" min="33" max="33"/>
     <col width="15" customWidth="1" min="34" max="34"/>
     <col width="15" customWidth="1" min="35" max="35"/>
     <col width="15" customWidth="1" min="36" max="36"/>
@@ -425,10 +425,10 @@
     <col width="15" customWidth="1" min="40" max="40"/>
     <col width="15" customWidth="1" min="41" max="41"/>
     <col width="15" customWidth="1" min="42" max="42"/>
-    <col width="25" customWidth="1" min="43" max="43"/>
+    <col width="15" customWidth="1" min="43" max="43"/>
     <col width="15" customWidth="1" min="44" max="44"/>
     <col width="15" customWidth="1" min="45" max="45"/>
-    <col width="15" customWidth="1" min="46" max="46"/>
+    <col width="25" customWidth="1" min="46" max="46"/>
     <col width="15" customWidth="1" min="47" max="47"/>
     <col width="15" customWidth="1" min="48" max="48"/>
     <col width="15" customWidth="1" min="49" max="49"/>
@@ -437,11 +437,11 @@
     <col width="15" customWidth="1" min="52" max="52"/>
     <col width="15" customWidth="1" min="53" max="53"/>
     <col width="15" customWidth="1" min="54" max="54"/>
-    <col width="25" customWidth="1" min="55" max="55"/>
+    <col width="15" customWidth="1" min="55" max="55"/>
     <col width="15" customWidth="1" min="56" max="56"/>
     <col width="15" customWidth="1" min="57" max="57"/>
     <col width="15" customWidth="1" min="58" max="58"/>
-    <col width="15" customWidth="1" min="59" max="59"/>
+    <col width="25" customWidth="1" min="59" max="59"/>
     <col width="15" customWidth="1" min="60" max="60"/>
     <col width="15" customWidth="1" min="61" max="61"/>
     <col width="15" customWidth="1" min="62" max="62"/>
@@ -449,43 +449,43 @@
     <col width="15" customWidth="1" min="64" max="64"/>
     <col width="15" customWidth="1" min="65" max="65"/>
     <col width="15" customWidth="1" min="66" max="66"/>
-    <col width="25" customWidth="1" min="67" max="67"/>
+    <col width="15" customWidth="1" min="67" max="67"/>
     <col width="15" customWidth="1" min="68" max="68"/>
     <col width="15" customWidth="1" min="69" max="69"/>
     <col width="15" customWidth="1" min="70" max="70"/>
     <col width="15" customWidth="1" min="71" max="71"/>
-    <col width="15" customWidth="1" min="72" max="72"/>
+    <col width="25" customWidth="1" min="72" max="72"/>
     <col width="15" customWidth="1" min="73" max="73"/>
     <col width="15" customWidth="1" min="74" max="74"/>
     <col width="15" customWidth="1" min="75" max="75"/>
     <col width="15" customWidth="1" min="76" max="76"/>
     <col width="15" customWidth="1" min="77" max="77"/>
     <col width="15" customWidth="1" min="78" max="78"/>
-    <col width="25" customWidth="1" min="79" max="79"/>
+    <col width="15" customWidth="1" min="79" max="79"/>
     <col width="15" customWidth="1" min="80" max="80"/>
     <col width="15" customWidth="1" min="81" max="81"/>
     <col width="15" customWidth="1" min="82" max="82"/>
     <col width="15" customWidth="1" min="83" max="83"/>
     <col width="15" customWidth="1" min="84" max="84"/>
-    <col width="15" customWidth="1" min="85" max="85"/>
+    <col width="25" customWidth="1" min="85" max="85"/>
     <col width="15" customWidth="1" min="86" max="86"/>
     <col width="15" customWidth="1" min="87" max="87"/>
     <col width="15" customWidth="1" min="88" max="88"/>
     <col width="15" customWidth="1" min="89" max="89"/>
     <col width="15" customWidth="1" min="90" max="90"/>
-    <col width="25" customWidth="1" min="91" max="91"/>
+    <col width="15" customWidth="1" min="91" max="91"/>
     <col width="15" customWidth="1" min="92" max="92"/>
     <col width="15" customWidth="1" min="93" max="93"/>
     <col width="15" customWidth="1" min="94" max="94"/>
     <col width="15" customWidth="1" min="95" max="95"/>
     <col width="15" customWidth="1" min="96" max="96"/>
     <col width="15" customWidth="1" min="97" max="97"/>
-    <col width="15" customWidth="1" min="98" max="98"/>
+    <col width="25" customWidth="1" min="98" max="98"/>
     <col width="15" customWidth="1" min="99" max="99"/>
     <col width="15" customWidth="1" min="100" max="100"/>
     <col width="15" customWidth="1" min="101" max="101"/>
     <col width="15" customWidth="1" min="102" max="102"/>
-    <col width="25" customWidth="1" min="103" max="103"/>
+    <col width="15" customWidth="1" min="103" max="103"/>
     <col width="15" customWidth="1" min="104" max="104"/>
     <col width="15" customWidth="1" min="105" max="105"/>
     <col width="15" customWidth="1" min="106" max="106"/>
@@ -493,11 +493,11 @@
     <col width="15" customWidth="1" min="108" max="108"/>
     <col width="15" customWidth="1" min="109" max="109"/>
     <col width="15" customWidth="1" min="110" max="110"/>
-    <col width="15" customWidth="1" min="111" max="111"/>
+    <col width="25" customWidth="1" min="111" max="111"/>
     <col width="15" customWidth="1" min="112" max="112"/>
     <col width="15" customWidth="1" min="113" max="113"/>
     <col width="15" customWidth="1" min="114" max="114"/>
-    <col width="25" customWidth="1" min="115" max="115"/>
+    <col width="15" customWidth="1" min="115" max="115"/>
     <col width="15" customWidth="1" min="116" max="116"/>
     <col width="15" customWidth="1" min="117" max="117"/>
     <col width="15" customWidth="1" min="118" max="118"/>
@@ -506,10 +506,10 @@
     <col width="15" customWidth="1" min="121" max="121"/>
     <col width="15" customWidth="1" min="122" max="122"/>
     <col width="15" customWidth="1" min="123" max="123"/>
-    <col width="15" customWidth="1" min="124" max="124"/>
+    <col width="25" customWidth="1" min="124" max="124"/>
     <col width="15" customWidth="1" min="125" max="125"/>
     <col width="15" customWidth="1" min="126" max="126"/>
-    <col width="25" customWidth="1" min="127" max="127"/>
+    <col width="15" customWidth="1" min="127" max="127"/>
     <col width="15" customWidth="1" min="128" max="128"/>
     <col width="15" customWidth="1" min="129" max="129"/>
     <col width="15" customWidth="1" min="130" max="130"/>
@@ -519,9 +519,9 @@
     <col width="15" customWidth="1" min="134" max="134"/>
     <col width="15" customWidth="1" min="135" max="135"/>
     <col width="15" customWidth="1" min="136" max="136"/>
-    <col width="15" customWidth="1" min="137" max="137"/>
+    <col width="25" customWidth="1" min="137" max="137"/>
     <col width="15" customWidth="1" min="138" max="138"/>
-    <col width="25" customWidth="1" min="139" max="139"/>
+    <col width="15" customWidth="1" min="139" max="139"/>
     <col width="15" customWidth="1" min="140" max="140"/>
     <col width="15" customWidth="1" min="141" max="141"/>
     <col width="15" customWidth="1" min="142" max="142"/>
@@ -532,8 +532,8 @@
     <col width="15" customWidth="1" min="147" max="147"/>
     <col width="15" customWidth="1" min="148" max="148"/>
     <col width="15" customWidth="1" min="149" max="149"/>
-    <col width="15" customWidth="1" min="150" max="150"/>
-    <col width="25" customWidth="1" min="151" max="151"/>
+    <col width="25" customWidth="1" min="150" max="150"/>
+    <col width="15" customWidth="1" min="151" max="151"/>
     <col width="15" customWidth="1" min="152" max="152"/>
     <col width="15" customWidth="1" min="153" max="153"/>
     <col width="15" customWidth="1" min="154" max="154"/>
@@ -557,8 +557,8 @@
     <col width="15" customWidth="1" min="172" max="172"/>
     <col width="15" customWidth="1" min="173" max="173"/>
     <col width="15" customWidth="1" min="174" max="174"/>
-    <col width="25" customWidth="1" min="175" max="175"/>
-    <col width="15" customWidth="1" min="176" max="176"/>
+    <col width="15" customWidth="1" min="175" max="175"/>
+    <col width="25" customWidth="1" min="176" max="176"/>
     <col width="15" customWidth="1" min="177" max="177"/>
     <col width="15" customWidth="1" min="178" max="178"/>
     <col width="15" customWidth="1" min="179" max="179"/>
@@ -569,9 +569,9 @@
     <col width="15" customWidth="1" min="184" max="184"/>
     <col width="15" customWidth="1" min="185" max="185"/>
     <col width="15" customWidth="1" min="186" max="186"/>
-    <col width="25" customWidth="1" min="187" max="187"/>
+    <col width="15" customWidth="1" min="187" max="187"/>
     <col width="15" customWidth="1" min="188" max="188"/>
-    <col width="15" customWidth="1" min="189" max="189"/>
+    <col width="25" customWidth="1" min="189" max="189"/>
     <col width="15" customWidth="1" min="190" max="190"/>
     <col width="15" customWidth="1" min="191" max="191"/>
     <col width="15" customWidth="1" min="192" max="192"/>
@@ -581,10 +581,10 @@
     <col width="15" customWidth="1" min="196" max="196"/>
     <col width="15" customWidth="1" min="197" max="197"/>
     <col width="15" customWidth="1" min="198" max="198"/>
-    <col width="25" customWidth="1" min="199" max="199"/>
+    <col width="15" customWidth="1" min="199" max="199"/>
     <col width="15" customWidth="1" min="200" max="200"/>
     <col width="15" customWidth="1" min="201" max="201"/>
-    <col width="15" customWidth="1" min="202" max="202"/>
+    <col width="25" customWidth="1" min="202" max="202"/>
     <col width="15" customWidth="1" min="203" max="203"/>
     <col width="15" customWidth="1" min="204" max="204"/>
     <col width="15" customWidth="1" min="205" max="205"/>
@@ -593,11 +593,11 @@
     <col width="15" customWidth="1" min="208" max="208"/>
     <col width="15" customWidth="1" min="209" max="209"/>
     <col width="15" customWidth="1" min="210" max="210"/>
-    <col width="25" customWidth="1" min="211" max="211"/>
+    <col width="15" customWidth="1" min="211" max="211"/>
     <col width="15" customWidth="1" min="212" max="212"/>
     <col width="15" customWidth="1" min="213" max="213"/>
     <col width="15" customWidth="1" min="214" max="214"/>
-    <col width="15" customWidth="1" min="215" max="215"/>
+    <col width="25" customWidth="1" min="215" max="215"/>
     <col width="15" customWidth="1" min="216" max="216"/>
     <col width="15" customWidth="1" min="217" max="217"/>
     <col width="15" customWidth="1" min="218" max="218"/>
@@ -605,43 +605,43 @@
     <col width="15" customWidth="1" min="220" max="220"/>
     <col width="15" customWidth="1" min="221" max="221"/>
     <col width="15" customWidth="1" min="222" max="222"/>
-    <col width="25" customWidth="1" min="223" max="223"/>
+    <col width="15" customWidth="1" min="223" max="223"/>
     <col width="15" customWidth="1" min="224" max="224"/>
     <col width="15" customWidth="1" min="225" max="225"/>
     <col width="15" customWidth="1" min="226" max="226"/>
     <col width="15" customWidth="1" min="227" max="227"/>
-    <col width="15" customWidth="1" min="228" max="228"/>
+    <col width="25" customWidth="1" min="228" max="228"/>
     <col width="15" customWidth="1" min="229" max="229"/>
     <col width="15" customWidth="1" min="230" max="230"/>
     <col width="15" customWidth="1" min="231" max="231"/>
     <col width="15" customWidth="1" min="232" max="232"/>
     <col width="15" customWidth="1" min="233" max="233"/>
     <col width="15" customWidth="1" min="234" max="234"/>
-    <col width="25" customWidth="1" min="235" max="235"/>
+    <col width="15" customWidth="1" min="235" max="235"/>
     <col width="15" customWidth="1" min="236" max="236"/>
     <col width="15" customWidth="1" min="237" max="237"/>
     <col width="15" customWidth="1" min="238" max="238"/>
     <col width="15" customWidth="1" min="239" max="239"/>
     <col width="15" customWidth="1" min="240" max="240"/>
-    <col width="15" customWidth="1" min="241" max="241"/>
+    <col width="25" customWidth="1" min="241" max="241"/>
     <col width="15" customWidth="1" min="242" max="242"/>
     <col width="15" customWidth="1" min="243" max="243"/>
     <col width="15" customWidth="1" min="244" max="244"/>
     <col width="15" customWidth="1" min="245" max="245"/>
     <col width="15" customWidth="1" min="246" max="246"/>
-    <col width="25" customWidth="1" min="247" max="247"/>
+    <col width="15" customWidth="1" min="247" max="247"/>
     <col width="15" customWidth="1" min="248" max="248"/>
     <col width="15" customWidth="1" min="249" max="249"/>
     <col width="15" customWidth="1" min="250" max="250"/>
     <col width="15" customWidth="1" min="251" max="251"/>
     <col width="15" customWidth="1" min="252" max="252"/>
     <col width="15" customWidth="1" min="253" max="253"/>
-    <col width="15" customWidth="1" min="254" max="254"/>
+    <col width="25" customWidth="1" min="254" max="254"/>
     <col width="15" customWidth="1" min="255" max="255"/>
     <col width="15" customWidth="1" min="256" max="256"/>
     <col width="15" customWidth="1" min="257" max="257"/>
     <col width="15" customWidth="1" min="258" max="258"/>
-    <col width="25" customWidth="1" min="259" max="259"/>
+    <col width="15" customWidth="1" min="259" max="259"/>
     <col width="15" customWidth="1" min="260" max="260"/>
     <col width="15" customWidth="1" min="261" max="261"/>
     <col width="15" customWidth="1" min="262" max="262"/>
@@ -649,11 +649,11 @@
     <col width="15" customWidth="1" min="264" max="264"/>
     <col width="15" customWidth="1" min="265" max="265"/>
     <col width="15" customWidth="1" min="266" max="266"/>
-    <col width="15" customWidth="1" min="267" max="267"/>
+    <col width="25" customWidth="1" min="267" max="267"/>
     <col width="15" customWidth="1" min="268" max="268"/>
     <col width="15" customWidth="1" min="269" max="269"/>
     <col width="15" customWidth="1" min="270" max="270"/>
-    <col width="25" customWidth="1" min="271" max="271"/>
+    <col width="15" customWidth="1" min="271" max="271"/>
     <col width="15" customWidth="1" min="272" max="272"/>
     <col width="15" customWidth="1" min="273" max="273"/>
     <col width="15" customWidth="1" min="274" max="274"/>
@@ -662,10 +662,10 @@
     <col width="15" customWidth="1" min="277" max="277"/>
     <col width="15" customWidth="1" min="278" max="278"/>
     <col width="15" customWidth="1" min="279" max="279"/>
-    <col width="15" customWidth="1" min="280" max="280"/>
+    <col width="25" customWidth="1" min="280" max="280"/>
     <col width="15" customWidth="1" min="281" max="281"/>
     <col width="15" customWidth="1" min="282" max="282"/>
-    <col width="25" customWidth="1" min="283" max="283"/>
+    <col width="15" customWidth="1" min="283" max="283"/>
     <col width="15" customWidth="1" min="284" max="284"/>
     <col width="15" customWidth="1" min="285" max="285"/>
     <col width="15" customWidth="1" min="286" max="286"/>
@@ -675,9 +675,9 @@
     <col width="15" customWidth="1" min="290" max="290"/>
     <col width="15" customWidth="1" min="291" max="291"/>
     <col width="15" customWidth="1" min="292" max="292"/>
-    <col width="15" customWidth="1" min="293" max="293"/>
+    <col width="25" customWidth="1" min="293" max="293"/>
     <col width="15" customWidth="1" min="294" max="294"/>
-    <col width="25" customWidth="1" min="295" max="295"/>
+    <col width="15" customWidth="1" min="295" max="295"/>
     <col width="15" customWidth="1" min="296" max="296"/>
     <col width="15" customWidth="1" min="297" max="297"/>
     <col width="15" customWidth="1" min="298" max="298"/>
@@ -688,8 +688,8 @@
     <col width="15" customWidth="1" min="303" max="303"/>
     <col width="15" customWidth="1" min="304" max="304"/>
     <col width="15" customWidth="1" min="305" max="305"/>
-    <col width="15" customWidth="1" min="306" max="306"/>
-    <col width="25" customWidth="1" min="307" max="307"/>
+    <col width="25" customWidth="1" min="306" max="306"/>
+    <col width="15" customWidth="1" min="307" max="307"/>
     <col width="15" customWidth="1" min="308" max="308"/>
     <col width="15" customWidth="1" min="309" max="309"/>
     <col width="15" customWidth="1" min="310" max="310"/>
@@ -713,8 +713,8 @@
     <col width="15" customWidth="1" min="328" max="328"/>
     <col width="15" customWidth="1" min="329" max="329"/>
     <col width="15" customWidth="1" min="330" max="330"/>
-    <col width="25" customWidth="1" min="331" max="331"/>
-    <col width="15" customWidth="1" min="332" max="332"/>
+    <col width="15" customWidth="1" min="331" max="331"/>
+    <col width="25" customWidth="1" min="332" max="332"/>
     <col width="15" customWidth="1" min="333" max="333"/>
     <col width="15" customWidth="1" min="334" max="334"/>
     <col width="15" customWidth="1" min="335" max="335"/>
@@ -725,9 +725,9 @@
     <col width="15" customWidth="1" min="340" max="340"/>
     <col width="15" customWidth="1" min="341" max="341"/>
     <col width="15" customWidth="1" min="342" max="342"/>
-    <col width="25" customWidth="1" min="343" max="343"/>
+    <col width="15" customWidth="1" min="343" max="343"/>
     <col width="15" customWidth="1" min="344" max="344"/>
-    <col width="15" customWidth="1" min="345" max="345"/>
+    <col width="25" customWidth="1" min="345" max="345"/>
     <col width="15" customWidth="1" min="346" max="346"/>
     <col width="15" customWidth="1" min="347" max="347"/>
     <col width="15" customWidth="1" min="348" max="348"/>
@@ -737,10 +737,10 @@
     <col width="15" customWidth="1" min="352" max="352"/>
     <col width="15" customWidth="1" min="353" max="353"/>
     <col width="15" customWidth="1" min="354" max="354"/>
-    <col width="25" customWidth="1" min="355" max="355"/>
+    <col width="15" customWidth="1" min="355" max="355"/>
     <col width="15" customWidth="1" min="356" max="356"/>
     <col width="15" customWidth="1" min="357" max="357"/>
-    <col width="15" customWidth="1" min="358" max="358"/>
+    <col width="25" customWidth="1" min="358" max="358"/>
     <col width="15" customWidth="1" min="359" max="359"/>
     <col width="15" customWidth="1" min="360" max="360"/>
     <col width="15" customWidth="1" min="361" max="361"/>
@@ -749,11 +749,11 @@
     <col width="15" customWidth="1" min="364" max="364"/>
     <col width="15" customWidth="1" min="365" max="365"/>
     <col width="15" customWidth="1" min="366" max="366"/>
-    <col width="25" customWidth="1" min="367" max="367"/>
+    <col width="15" customWidth="1" min="367" max="367"/>
     <col width="15" customWidth="1" min="368" max="368"/>
     <col width="15" customWidth="1" min="369" max="369"/>
     <col width="15" customWidth="1" min="370" max="370"/>
-    <col width="15" customWidth="1" min="371" max="371"/>
+    <col width="25" customWidth="1" min="371" max="371"/>
     <col width="15" customWidth="1" min="372" max="372"/>
     <col width="15" customWidth="1" min="373" max="373"/>
     <col width="15" customWidth="1" min="374" max="374"/>
@@ -761,43 +761,43 @@
     <col width="15" customWidth="1" min="376" max="376"/>
     <col width="15" customWidth="1" min="377" max="377"/>
     <col width="15" customWidth="1" min="378" max="378"/>
-    <col width="25" customWidth="1" min="379" max="379"/>
+    <col width="15" customWidth="1" min="379" max="379"/>
     <col width="15" customWidth="1" min="380" max="380"/>
     <col width="15" customWidth="1" min="381" max="381"/>
     <col width="15" customWidth="1" min="382" max="382"/>
     <col width="15" customWidth="1" min="383" max="383"/>
-    <col width="15" customWidth="1" min="384" max="384"/>
+    <col width="25" customWidth="1" min="384" max="384"/>
     <col width="15" customWidth="1" min="385" max="385"/>
     <col width="15" customWidth="1" min="386" max="386"/>
     <col width="15" customWidth="1" min="387" max="387"/>
     <col width="15" customWidth="1" min="388" max="388"/>
     <col width="15" customWidth="1" min="389" max="389"/>
     <col width="15" customWidth="1" min="390" max="390"/>
-    <col width="25" customWidth="1" min="391" max="391"/>
+    <col width="15" customWidth="1" min="391" max="391"/>
     <col width="15" customWidth="1" min="392" max="392"/>
     <col width="15" customWidth="1" min="393" max="393"/>
     <col width="15" customWidth="1" min="394" max="394"/>
     <col width="15" customWidth="1" min="395" max="395"/>
     <col width="15" customWidth="1" min="396" max="396"/>
-    <col width="15" customWidth="1" min="397" max="397"/>
+    <col width="25" customWidth="1" min="397" max="397"/>
     <col width="15" customWidth="1" min="398" max="398"/>
     <col width="15" customWidth="1" min="399" max="399"/>
     <col width="15" customWidth="1" min="400" max="400"/>
     <col width="15" customWidth="1" min="401" max="401"/>
     <col width="15" customWidth="1" min="402" max="402"/>
-    <col width="25" customWidth="1" min="403" max="403"/>
+    <col width="15" customWidth="1" min="403" max="403"/>
     <col width="15" customWidth="1" min="404" max="404"/>
     <col width="15" customWidth="1" min="405" max="405"/>
     <col width="15" customWidth="1" min="406" max="406"/>
     <col width="15" customWidth="1" min="407" max="407"/>
     <col width="15" customWidth="1" min="408" max="408"/>
     <col width="15" customWidth="1" min="409" max="409"/>
-    <col width="15" customWidth="1" min="410" max="410"/>
+    <col width="25" customWidth="1" min="410" max="410"/>
     <col width="15" customWidth="1" min="411" max="411"/>
     <col width="15" customWidth="1" min="412" max="412"/>
     <col width="15" customWidth="1" min="413" max="413"/>
     <col width="15" customWidth="1" min="414" max="414"/>
-    <col width="25" customWidth="1" min="415" max="415"/>
+    <col width="15" customWidth="1" min="415" max="415"/>
     <col width="15" customWidth="1" min="416" max="416"/>
     <col width="15" customWidth="1" min="417" max="417"/>
     <col width="15" customWidth="1" min="418" max="418"/>
@@ -805,11 +805,11 @@
     <col width="15" customWidth="1" min="420" max="420"/>
     <col width="15" customWidth="1" min="421" max="421"/>
     <col width="15" customWidth="1" min="422" max="422"/>
-    <col width="15" customWidth="1" min="423" max="423"/>
+    <col width="25" customWidth="1" min="423" max="423"/>
     <col width="15" customWidth="1" min="424" max="424"/>
     <col width="15" customWidth="1" min="425" max="425"/>
     <col width="15" customWidth="1" min="426" max="426"/>
-    <col width="25" customWidth="1" min="427" max="427"/>
+    <col width="15" customWidth="1" min="427" max="427"/>
     <col width="15" customWidth="1" min="428" max="428"/>
     <col width="15" customWidth="1" min="429" max="429"/>
     <col width="15" customWidth="1" min="430" max="430"/>
@@ -818,10 +818,10 @@
     <col width="15" customWidth="1" min="433" max="433"/>
     <col width="15" customWidth="1" min="434" max="434"/>
     <col width="15" customWidth="1" min="435" max="435"/>
-    <col width="15" customWidth="1" min="436" max="436"/>
+    <col width="25" customWidth="1" min="436" max="436"/>
     <col width="15" customWidth="1" min="437" max="437"/>
     <col width="15" customWidth="1" min="438" max="438"/>
-    <col width="25" customWidth="1" min="439" max="439"/>
+    <col width="15" customWidth="1" min="439" max="439"/>
     <col width="15" customWidth="1" min="440" max="440"/>
     <col width="15" customWidth="1" min="441" max="441"/>
     <col width="15" customWidth="1" min="442" max="442"/>
@@ -831,9 +831,9 @@
     <col width="15" customWidth="1" min="446" max="446"/>
     <col width="15" customWidth="1" min="447" max="447"/>
     <col width="15" customWidth="1" min="448" max="448"/>
-    <col width="15" customWidth="1" min="449" max="449"/>
+    <col width="25" customWidth="1" min="449" max="449"/>
     <col width="15" customWidth="1" min="450" max="450"/>
-    <col width="25" customWidth="1" min="451" max="451"/>
+    <col width="15" customWidth="1" min="451" max="451"/>
     <col width="15" customWidth="1" min="452" max="452"/>
     <col width="15" customWidth="1" min="453" max="453"/>
     <col width="15" customWidth="1" min="454" max="454"/>
@@ -844,8 +844,8 @@
     <col width="15" customWidth="1" min="459" max="459"/>
     <col width="15" customWidth="1" min="460" max="460"/>
     <col width="15" customWidth="1" min="461" max="461"/>
-    <col width="15" customWidth="1" min="462" max="462"/>
-    <col width="25" customWidth="1" min="463" max="463"/>
+    <col width="25" customWidth="1" min="462" max="462"/>
+    <col width="15" customWidth="1" min="463" max="463"/>
     <col width="15" customWidth="1" min="464" max="464"/>
     <col width="15" customWidth="1" min="465" max="465"/>
     <col width="15" customWidth="1" min="466" max="466"/>
@@ -869,8 +869,8 @@
     <col width="15" customWidth="1" min="484" max="484"/>
     <col width="15" customWidth="1" min="485" max="485"/>
     <col width="15" customWidth="1" min="486" max="486"/>
-    <col width="25" customWidth="1" min="487" max="487"/>
-    <col width="15" customWidth="1" min="488" max="488"/>
+    <col width="15" customWidth="1" min="487" max="487"/>
+    <col width="25" customWidth="1" min="488" max="488"/>
     <col width="15" customWidth="1" min="489" max="489"/>
     <col width="15" customWidth="1" min="490" max="490"/>
     <col width="15" customWidth="1" min="491" max="491"/>
@@ -881,9 +881,9 @@
     <col width="15" customWidth="1" min="496" max="496"/>
     <col width="15" customWidth="1" min="497" max="497"/>
     <col width="15" customWidth="1" min="498" max="498"/>
-    <col width="25" customWidth="1" min="499" max="499"/>
+    <col width="15" customWidth="1" min="499" max="499"/>
     <col width="15" customWidth="1" min="500" max="500"/>
-    <col width="15" customWidth="1" min="501" max="501"/>
+    <col width="25" customWidth="1" min="501" max="501"/>
     <col width="15" customWidth="1" min="502" max="502"/>
     <col width="15" customWidth="1" min="503" max="503"/>
     <col width="15" customWidth="1" min="504" max="504"/>
@@ -893,10 +893,10 @@
     <col width="15" customWidth="1" min="508" max="508"/>
     <col width="15" customWidth="1" min="509" max="509"/>
     <col width="15" customWidth="1" min="510" max="510"/>
-    <col width="25" customWidth="1" min="511" max="511"/>
+    <col width="15" customWidth="1" min="511" max="511"/>
     <col width="15" customWidth="1" min="512" max="512"/>
     <col width="15" customWidth="1" min="513" max="513"/>
-    <col width="15" customWidth="1" min="514" max="514"/>
+    <col width="25" customWidth="1" min="514" max="514"/>
     <col width="15" customWidth="1" min="515" max="515"/>
     <col width="15" customWidth="1" min="516" max="516"/>
     <col width="15" customWidth="1" min="517" max="517"/>
@@ -905,11 +905,11 @@
     <col width="15" customWidth="1" min="520" max="520"/>
     <col width="15" customWidth="1" min="521" max="521"/>
     <col width="15" customWidth="1" min="522" max="522"/>
-    <col width="25" customWidth="1" min="523" max="523"/>
+    <col width="15" customWidth="1" min="523" max="523"/>
     <col width="15" customWidth="1" min="524" max="524"/>
     <col width="15" customWidth="1" min="525" max="525"/>
     <col width="15" customWidth="1" min="526" max="526"/>
-    <col width="15" customWidth="1" min="527" max="527"/>
+    <col width="25" customWidth="1" min="527" max="527"/>
     <col width="15" customWidth="1" min="528" max="528"/>
     <col width="15" customWidth="1" min="529" max="529"/>
     <col width="15" customWidth="1" min="530" max="530"/>
@@ -917,12 +917,70 @@
     <col width="15" customWidth="1" min="532" max="532"/>
     <col width="15" customWidth="1" min="533" max="533"/>
     <col width="15" customWidth="1" min="534" max="534"/>
-    <col width="25" customWidth="1" min="535" max="535"/>
+    <col width="15" customWidth="1" min="535" max="535"/>
     <col width="15" customWidth="1" min="536" max="536"/>
     <col width="15" customWidth="1" min="537" max="537"/>
     <col width="15" customWidth="1" min="538" max="538"/>
     <col width="15" customWidth="1" min="539" max="539"/>
-    <col width="15" customWidth="1" min="540" max="540"/>
+    <col width="25" customWidth="1" min="540" max="540"/>
+    <col width="15" customWidth="1" min="541" max="541"/>
+    <col width="15" customWidth="1" min="542" max="542"/>
+    <col width="15" customWidth="1" min="543" max="543"/>
+    <col width="15" customWidth="1" min="544" max="544"/>
+    <col width="15" customWidth="1" min="545" max="545"/>
+    <col width="15" customWidth="1" min="546" max="546"/>
+    <col width="15" customWidth="1" min="547" max="547"/>
+    <col width="15" customWidth="1" min="548" max="548"/>
+    <col width="15" customWidth="1" min="549" max="549"/>
+    <col width="15" customWidth="1" min="550" max="550"/>
+    <col width="15" customWidth="1" min="551" max="551"/>
+    <col width="15" customWidth="1" min="552" max="552"/>
+    <col width="25" customWidth="1" min="553" max="553"/>
+    <col width="15" customWidth="1" min="554" max="554"/>
+    <col width="15" customWidth="1" min="555" max="555"/>
+    <col width="15" customWidth="1" min="556" max="556"/>
+    <col width="15" customWidth="1" min="557" max="557"/>
+    <col width="15" customWidth="1" min="558" max="558"/>
+    <col width="15" customWidth="1" min="559" max="559"/>
+    <col width="15" customWidth="1" min="560" max="560"/>
+    <col width="15" customWidth="1" min="561" max="561"/>
+    <col width="15" customWidth="1" min="562" max="562"/>
+    <col width="15" customWidth="1" min="563" max="563"/>
+    <col width="15" customWidth="1" min="564" max="564"/>
+    <col width="15" customWidth="1" min="565" max="565"/>
+    <col width="25" customWidth="1" min="566" max="566"/>
+    <col width="15" customWidth="1" min="567" max="567"/>
+    <col width="15" customWidth="1" min="568" max="568"/>
+    <col width="15" customWidth="1" min="569" max="569"/>
+    <col width="15" customWidth="1" min="570" max="570"/>
+    <col width="15" customWidth="1" min="571" max="571"/>
+    <col width="15" customWidth="1" min="572" max="572"/>
+    <col width="15" customWidth="1" min="573" max="573"/>
+    <col width="15" customWidth="1" min="574" max="574"/>
+    <col width="15" customWidth="1" min="575" max="575"/>
+    <col width="15" customWidth="1" min="576" max="576"/>
+    <col width="15" customWidth="1" min="577" max="577"/>
+    <col width="15" customWidth="1" min="578" max="578"/>
+    <col width="25" customWidth="1" min="579" max="579"/>
+    <col width="15" customWidth="1" min="580" max="580"/>
+    <col width="15" customWidth="1" min="581" max="581"/>
+    <col width="15" customWidth="1" min="582" max="582"/>
+    <col width="15" customWidth="1" min="583" max="583"/>
+    <col width="15" customWidth="1" min="584" max="584"/>
+    <col width="15" customWidth="1" min="585" max="585"/>
+    <col width="15" customWidth="1" min="586" max="586"/>
+    <col width="15" customWidth="1" min="587" max="587"/>
+    <col width="15" customWidth="1" min="588" max="588"/>
+    <col width="15" customWidth="1" min="589" max="589"/>
+    <col width="15" customWidth="1" min="590" max="590"/>
+    <col width="15" customWidth="1" min="591" max="591"/>
+    <col width="25" customWidth="1" min="592" max="592"/>
+    <col width="15" customWidth="1" min="593" max="593"/>
+    <col width="15" customWidth="1" min="594" max="594"/>
+    <col width="15" customWidth="1" min="595" max="595"/>
+    <col width="15" customWidth="1" min="596" max="596"/>
+    <col width="15" customWidth="1" min="597" max="597"/>
+    <col width="15" customWidth="1" min="598" max="598"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -948,40 +1006,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Prev Month Balance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Podushka</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ZP cash</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Office Fees</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Account</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Change (+/-)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Take home</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Social</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Date Reconciliation</t>
         </is>
@@ -1010,17 +1073,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>345</v>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1032,6 +1095,11 @@
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1060,17 +1128,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2000</v>
       </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1082,6 +1150,11 @@
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1110,17 +1183,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>34</v>
       </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1132,6 +1205,11 @@
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1160,17 +1238,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>34534</v>
       </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1182,6 +1260,11 @@
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1210,17 +1293,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1234124</v>
       </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1232,6 +1315,11 @@
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1260,13 +1348,13 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -1284,6 +1372,11 @@
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1312,17 +1405,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>23423</v>
       </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1334,6 +1427,11 @@
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1352,27 +1450,25 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E9" t="n">
+        <v>90000</v>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>33777</v>
       </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1384,6 +1480,11 @@
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1412,17 +1513,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>2342342</v>
       </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1434,6 +1535,11 @@
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1462,17 +1568,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>42345</v>
       </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1484,6 +1590,11 @@
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1502,26 +1613,24 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E12" t="n">
+        <v>10000</v>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1534,6 +1643,11 @@
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1562,17 +1676,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>123123</v>
       </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1584,6 +1698,11 @@
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1612,17 +1731,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>4124</v>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1634,6 +1753,11 @@
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1662,17 +1786,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>23423</v>
       </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1684,6 +1808,11 @@
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1712,17 +1841,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>412412</v>
       </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1734,6 +1863,11 @@
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1762,17 +1896,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2141234</v>
       </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1784,6 +1918,11 @@
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1812,17 +1951,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>234234</v>
       </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1834,6 +1973,11 @@
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1862,17 +2006,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>12523</v>
       </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1884,6 +2028,11 @@
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1912,17 +2061,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>34232</v>
       </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -1934,6 +2083,11 @@
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1944,7 +2098,7 @@
         <v>90000</v>
       </c>
       <c r="B21" t="n">
-        <v>413</v>
+        <v>-110</v>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
@@ -1957,28 +2111,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-199</v>
+        <v>1765</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-942</v>
       </c>
       <c r="G21" t="n">
-        <v>-304</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>83</v>
+        <v>-365</v>
       </c>
       <c r="I21" t="n">
-        <v>-38</v>
+        <v>759</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>-111</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
-      </c>
-      <c r="L21" s="4" t="n">
-        <v>44321.47105324074</v>
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>56</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="22">
@@ -1986,7 +2143,7 @@
         <v>90001</v>
       </c>
       <c r="B22" t="n">
-        <v>-122</v>
+        <v>-576</v>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
@@ -1999,28 +2156,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1211</v>
+        <v>-74</v>
       </c>
       <c r="F22" t="n">
-        <v>239</v>
+        <v>475</v>
       </c>
       <c r="G22" t="n">
-        <v>-348</v>
+        <v>213</v>
       </c>
       <c r="H22" t="n">
-        <v>949</v>
+        <v>-352</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>361</v>
       </c>
       <c r="J22" t="n">
-        <v>239</v>
+        <v>-139</v>
       </c>
       <c r="K22" t="n">
-        <v>40</v>
-      </c>
-      <c r="L22" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>213</v>
+      </c>
+      <c r="L22" t="n">
+        <v>78</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="23">
@@ -2028,7 +2188,7 @@
         <v>90002</v>
       </c>
       <c r="B23" t="n">
-        <v>-80</v>
+        <v>237</v>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
@@ -2041,28 +2201,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1522</v>
+        <v>1697</v>
       </c>
       <c r="F23" t="n">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G23" t="n">
-        <v>-165</v>
+        <v>60</v>
       </c>
       <c r="H23" t="n">
-        <v>840</v>
+        <v>-342</v>
       </c>
       <c r="I23" t="n">
-        <v>-35</v>
+        <v>346</v>
       </c>
       <c r="J23" t="n">
-        <v>141</v>
+        <v>-12</v>
       </c>
       <c r="K23" t="n">
-        <v>132</v>
-      </c>
-      <c r="L23" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>60</v>
+      </c>
+      <c r="L23" t="n">
+        <v>55</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="24">
@@ -2070,7 +2233,7 @@
         <v>90003</v>
       </c>
       <c r="B24" t="n">
-        <v>-122</v>
+        <v>-101</v>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
@@ -2083,28 +2246,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-311</v>
+        <v>455</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G24" t="n">
-        <v>-294</v>
+        <v>219</v>
       </c>
       <c r="H24" t="n">
-        <v>1062</v>
+        <v>-94</v>
       </c>
       <c r="I24" t="n">
-        <v>-36</v>
+        <v>927</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>-196</v>
       </c>
       <c r="K24" t="n">
-        <v>23</v>
-      </c>
-      <c r="L24" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>219</v>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="25">
@@ -2112,7 +2278,7 @@
         <v>90004</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>-95</v>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
@@ -2125,28 +2291,31 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>-36</v>
       </c>
       <c r="F25" t="n">
-        <v>69</v>
+        <v>1299</v>
       </c>
       <c r="G25" t="n">
-        <v>-155</v>
+        <v>187</v>
       </c>
       <c r="H25" t="n">
-        <v>854</v>
+        <v>-292</v>
       </c>
       <c r="I25" t="n">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="J25" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>187</v>
+      </c>
+      <c r="L25" t="n">
+        <v>87</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="26">
@@ -2154,7 +2323,7 @@
         <v>90005</v>
       </c>
       <c r="B26" t="n">
-        <v>103</v>
+        <v>-208</v>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
@@ -2167,28 +2336,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>686</v>
+        <v>1447</v>
       </c>
       <c r="F26" t="n">
-        <v>478</v>
+        <v>-586</v>
       </c>
       <c r="G26" t="n">
-        <v>-255</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>386</v>
+        <v>-179</v>
       </c>
       <c r="I26" t="n">
-        <v>148</v>
+        <v>1121</v>
       </c>
       <c r="J26" t="n">
-        <v>478</v>
+        <v>-99</v>
       </c>
       <c r="K26" t="n">
-        <v>215</v>
-      </c>
-      <c r="L26" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>44</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="27">
@@ -2196,7 +2368,7 @@
         <v>90006</v>
       </c>
       <c r="B27" t="n">
-        <v>-486</v>
+        <v>227</v>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
@@ -2209,28 +2381,31 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1777</v>
+        <v>1451</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G27" t="n">
-        <v>-245</v>
+        <v>357</v>
       </c>
       <c r="H27" t="n">
-        <v>1012</v>
+        <v>-331</v>
       </c>
       <c r="I27" t="n">
-        <v>-32</v>
+        <v>480</v>
       </c>
       <c r="J27" t="n">
-        <v>13</v>
+        <v>-72</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>357</v>
+      </c>
+      <c r="L27" t="n">
+        <v>112</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="28">
@@ -2238,7 +2413,7 @@
         <v>90007</v>
       </c>
       <c r="B28" t="n">
-        <v>-291</v>
+        <v>-199</v>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
@@ -2251,28 +2426,31 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-612</v>
+        <v>1592</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-569</v>
+        <v>18</v>
       </c>
       <c r="H28" t="n">
-        <v>588</v>
+        <v>-426</v>
       </c>
       <c r="I28" t="n">
-        <v>-35</v>
+        <v>856</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>18</v>
+      </c>
+      <c r="L28" t="n">
+        <v>33</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="29">
@@ -2280,7 +2458,7 @@
         <v>90008</v>
       </c>
       <c r="B29" t="n">
-        <v>-294</v>
+        <v>306</v>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
@@ -2293,28 +2471,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>623</v>
+        <v>927</v>
       </c>
       <c r="F29" t="n">
-        <v>255</v>
+        <v>664</v>
       </c>
       <c r="G29" t="n">
-        <v>-331</v>
+        <v>87</v>
       </c>
       <c r="H29" t="n">
-        <v>530</v>
+        <v>-492</v>
       </c>
       <c r="I29" t="n">
-        <v>-33</v>
+        <v>879</v>
       </c>
       <c r="J29" t="n">
-        <v>255</v>
+        <v>-200</v>
       </c>
       <c r="K29" t="n">
-        <v>47</v>
-      </c>
-      <c r="L29" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>87</v>
+      </c>
+      <c r="L29" t="n">
+        <v>94</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="30">
@@ -2322,7 +2503,7 @@
         <v>90009</v>
       </c>
       <c r="B30" t="n">
-        <v>480</v>
+        <v>-301</v>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
@@ -2335,28 +2516,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>546</v>
+        <v>1857</v>
       </c>
       <c r="F30" t="n">
-        <v>202</v>
+        <v>588</v>
       </c>
       <c r="G30" t="n">
-        <v>-284</v>
+        <v>461</v>
       </c>
       <c r="H30" t="n">
-        <v>213</v>
+        <v>-369</v>
       </c>
       <c r="I30" t="n">
-        <v>-113</v>
+        <v>641</v>
       </c>
       <c r="J30" t="n">
-        <v>202</v>
+        <v>-43</v>
       </c>
       <c r="K30" t="n">
-        <v>289</v>
-      </c>
-      <c r="L30" s="4" t="n">
-        <v>44321.47106481482</v>
+        <v>461</v>
+      </c>
+      <c r="L30" t="n">
+        <v>118</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>44343.93866898148</v>
       </c>
     </row>
     <row r="31">
@@ -2382,17 +2566,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>345</v>
       </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2404,6 +2588,11 @@
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2432,17 +2621,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>34534</v>
       </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2454,6 +2643,11 @@
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2482,17 +2676,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>234234</v>
       </c>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2504,6 +2698,11 @@
         </is>
       </c>
       <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2532,17 +2731,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>234234</v>
       </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2554,6 +2753,11 @@
         </is>
       </c>
       <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2582,17 +2786,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>45343</v>
       </c>
-      <c r="I35" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2604,6 +2808,11 @@
         </is>
       </c>
       <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2632,17 +2841,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>4533</v>
       </c>
-      <c r="I36" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2654,6 +2863,11 @@
         </is>
       </c>
       <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2682,17 +2896,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>23423</v>
       </c>
-      <c r="I37" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2704,6 +2918,11 @@
         </is>
       </c>
       <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2732,17 +2951,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>234234</v>
       </c>
-      <c r="I38" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2754,6 +2973,11 @@
         </is>
       </c>
       <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2782,17 +3006,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>23423</v>
       </c>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2804,6 +3028,11 @@
         </is>
       </c>
       <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2814,35 +3043,33 @@
         <v>234273</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>445</v>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>-25</v>
+      </c>
+      <c r="I40" t="n">
         <v>20</v>
       </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2854,6 +3081,11 @@
         </is>
       </c>
       <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2882,13 +3114,13 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
@@ -2906,6 +3138,11 @@
         </is>
       </c>
       <c r="L41" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2925,29 +3162,32 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F42" t="n">
         <v>100</v>
       </c>
-      <c r="F42" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>-50</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>2000</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>30</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>1000</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>5</v>
       </c>
-      <c r="L42" s="3" t="inlineStr">
+      <c r="M42" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2958,34 +3198,32 @@
         <v>234276</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C43" t="n">
         <v>-200</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>115</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="I43" t="n">
+        <v>348</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2998,6 +3236,11 @@
         </is>
       </c>
       <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3026,13 +3269,13 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
@@ -3050,6 +3293,11 @@
         </is>
       </c>
       <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3057,49 +3305,107 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
+        <v>234285</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L45" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M45" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>789987</v>
       </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K45" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L45" s="3" t="inlineStr">
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/base/data_set/all_users_data.xlsx
+++ b/base/data_set/all_users_data.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,6 +981,19 @@
     <col width="15" customWidth="1" min="596" max="596"/>
     <col width="15" customWidth="1" min="597" max="597"/>
     <col width="15" customWidth="1" min="598" max="598"/>
+    <col width="15" customWidth="1" min="599" max="599"/>
+    <col width="15" customWidth="1" min="600" max="600"/>
+    <col width="15" customWidth="1" min="601" max="601"/>
+    <col width="15" customWidth="1" min="602" max="602"/>
+    <col width="15" customWidth="1" min="603" max="603"/>
+    <col width="15" customWidth="1" min="604" max="604"/>
+    <col width="25" customWidth="1" min="605" max="605"/>
+    <col width="15" customWidth="1" min="606" max="606"/>
+    <col width="15" customWidth="1" min="607" max="607"/>
+    <col width="15" customWidth="1" min="608" max="608"/>
+    <col width="15" customWidth="1" min="609" max="609"/>
+    <col width="15" customWidth="1" min="610" max="610"/>
+    <col width="15" customWidth="1" min="611" max="611"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1057,11 +1070,15 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
@@ -1078,11 +1095,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>345</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>345.0000</t>
+        </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -1112,11 +1133,15 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
@@ -1133,11 +1158,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2000</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2000.0000</t>
+        </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -1167,11 +1196,15 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -1188,11 +1221,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>34.0000</t>
+        </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -1222,11 +1259,15 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
@@ -1243,11 +1284,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>34534</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>34534.0000</t>
+        </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -1277,11 +1322,15 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
@@ -1298,11 +1347,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1234124</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1234124.0000</t>
+        </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -1332,11 +1385,15 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
@@ -1353,8 +1410,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
@@ -1389,11 +1448,15 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
@@ -1410,11 +1473,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>23423</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>23423.0000</t>
+        </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -1442,16 +1509,22 @@
         <v>297</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>90000</v>
+        <v>-92.03</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>466.7300</t>
+        </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
@@ -1463,11 +1536,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>33777</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20.2500</t>
+        </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -1497,11 +1574,15 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -1518,11 +1599,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2342342</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2342342.0000</t>
+        </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -1552,11 +1637,15 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1573,11 +1662,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>42345</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>42345.0000</t>
+        </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -1607,14 +1700,20 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10000</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10000.0000</t>
+        </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
@@ -1626,11 +1725,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1660,11 +1763,15 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
@@ -1681,11 +1788,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>123123</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>123123.0000</t>
+        </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1715,11 +1826,15 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
@@ -1736,11 +1851,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4124</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4124.0000</t>
+        </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1770,11 +1889,15 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
@@ -1791,11 +1914,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23423</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>23423.0000</t>
+        </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1825,11 +1952,15 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
@@ -1846,11 +1977,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>412412</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>412412.0000</t>
+        </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
@@ -1880,11 +2015,15 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
@@ -1901,11 +2040,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2141234</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2141234.0000</t>
+        </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1935,11 +2078,15 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
@@ -1956,11 +2103,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>234234</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>234234.0000</t>
+        </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1990,11 +2141,15 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
@@ -2011,11 +2166,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12523</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>12523.0000</t>
+        </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -2045,11 +2204,15 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
@@ -2066,11 +2229,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34232</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>34232.0000</t>
+        </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -2098,7 +2265,7 @@
         <v>90000</v>
       </c>
       <c r="B21" t="n">
-        <v>-110</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
@@ -2110,32 +2277,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>1765</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-942</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-365</v>
-      </c>
-      <c r="I21" t="n">
-        <v>759</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-111</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>56</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>407.0000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>920.0000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>152.0000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-195.0000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>722.0000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>4.0000</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>152.0000</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>45.0000</t>
+        </is>
       </c>
       <c r="M21" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="22">
@@ -2143,7 +2326,7 @@
         <v>90001</v>
       </c>
       <c r="B22" t="n">
-        <v>-576</v>
+        <v>549</v>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
@@ -2155,32 +2338,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>-74</v>
-      </c>
-      <c r="F22" t="n">
-        <v>475</v>
-      </c>
-      <c r="G22" t="n">
-        <v>213</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-352</v>
-      </c>
-      <c r="I22" t="n">
-        <v>361</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-139</v>
-      </c>
-      <c r="K22" t="n">
-        <v>213</v>
-      </c>
-      <c r="L22" t="n">
-        <v>78</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-38.0000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-541.0000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-270.0000</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>961.0000</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-15.0000</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>15.0000</t>
+        </is>
       </c>
       <c r="M22" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="23">
@@ -2188,7 +2387,7 @@
         <v>90002</v>
       </c>
       <c r="B23" t="n">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
@@ -2200,32 +2399,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>1697</v>
-      </c>
-      <c r="F23" t="n">
-        <v>138</v>
-      </c>
-      <c r="G23" t="n">
-        <v>60</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-342</v>
-      </c>
-      <c r="I23" t="n">
-        <v>346</v>
-      </c>
-      <c r="J23" t="n">
-        <v>-12</v>
-      </c>
-      <c r="K23" t="n">
-        <v>60</v>
-      </c>
-      <c r="L23" t="n">
-        <v>55</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>488.0000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>351.0000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-23.0000</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>263.0000</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-25.0000</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>351.0000</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>98.0000</t>
+        </is>
       </c>
       <c r="M23" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="24">
@@ -2233,7 +2448,7 @@
         <v>90003</v>
       </c>
       <c r="B24" t="n">
-        <v>-101</v>
+        <v>645</v>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
@@ -2245,32 +2460,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>455</v>
-      </c>
-      <c r="F24" t="n">
-        <v>156</v>
-      </c>
-      <c r="G24" t="n">
-        <v>219</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-94</v>
-      </c>
-      <c r="I24" t="n">
-        <v>927</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-196</v>
-      </c>
-      <c r="K24" t="n">
-        <v>219</v>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>605.0000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>156.0000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>51.0000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-153.0000</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>953.0000</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-113.0000</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>51.0000</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>27.0000</t>
+        </is>
       </c>
       <c r="M24" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="25">
@@ -2278,7 +2509,7 @@
         <v>90004</v>
       </c>
       <c r="B25" t="n">
-        <v>-95</v>
+        <v>-333</v>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
@@ -2290,32 +2521,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>-36</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1299</v>
-      </c>
-      <c r="G25" t="n">
-        <v>187</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-292</v>
-      </c>
-      <c r="I25" t="n">
-        <v>136</v>
-      </c>
-      <c r="J25" t="n">
-        <v>22</v>
-      </c>
-      <c r="K25" t="n">
-        <v>187</v>
-      </c>
-      <c r="L25" t="n">
-        <v>87</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>179.0000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>478.0000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>160.0000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-77.0000</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>486.0000</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>14.0000</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>160.0000</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>72.0000</t>
+        </is>
       </c>
       <c r="M25" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="26">
@@ -2323,7 +2570,7 @@
         <v>90005</v>
       </c>
       <c r="B26" t="n">
-        <v>-208</v>
+        <v>-95</v>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
@@ -2335,32 +2582,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>1447</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-586</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-179</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1121</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-99</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>44</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>892.0000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>409.0000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>300.0000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-189.0000</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>591.0000</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-64.0000</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>300.0000</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>93.0000</t>
+        </is>
       </c>
       <c r="M26" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="27">
@@ -2368,7 +2631,7 @@
         <v>90006</v>
       </c>
       <c r="B27" t="n">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
@@ -2380,32 +2643,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>1451</v>
-      </c>
-      <c r="F27" t="n">
-        <v>27</v>
-      </c>
-      <c r="G27" t="n">
-        <v>357</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-331</v>
-      </c>
-      <c r="I27" t="n">
-        <v>480</v>
-      </c>
-      <c r="J27" t="n">
-        <v>-72</v>
-      </c>
-      <c r="K27" t="n">
-        <v>357</v>
-      </c>
-      <c r="L27" t="n">
-        <v>112</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>581.0000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>291.0000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>360.0000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-90.0000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>174.0000</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>168.0000</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>360.0000</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>170.0000</t>
+        </is>
       </c>
       <c r="M27" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="28">
@@ -2413,7 +2692,7 @@
         <v>90007</v>
       </c>
       <c r="B28" t="n">
-        <v>-199</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
@@ -2425,32 +2704,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>1592</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>18</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-426</v>
-      </c>
-      <c r="I28" t="n">
-        <v>856</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-42</v>
-      </c>
-      <c r="K28" t="n">
-        <v>18</v>
-      </c>
-      <c r="L28" t="n">
-        <v>33</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1642.0000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>191.0000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>211.0000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-142.0000</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>708.0000</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>35.0000</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>211.0000</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>73.0000</t>
+        </is>
       </c>
       <c r="M28" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="29">
@@ -2458,7 +2753,7 @@
         <v>90008</v>
       </c>
       <c r="B29" t="n">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
@@ -2470,32 +2765,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>927</v>
-      </c>
-      <c r="F29" t="n">
-        <v>664</v>
-      </c>
-      <c r="G29" t="n">
-        <v>87</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-492</v>
-      </c>
-      <c r="I29" t="n">
-        <v>879</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-200</v>
-      </c>
-      <c r="K29" t="n">
-        <v>87</v>
-      </c>
-      <c r="L29" t="n">
-        <v>94</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>986.0000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-965.0000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-46.0000</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>806.0000</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-134.0000</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>11.0000</t>
+        </is>
       </c>
       <c r="M29" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="30">
@@ -2503,7 +2814,7 @@
         <v>90009</v>
       </c>
       <c r="B30" t="n">
-        <v>-301</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
@@ -2515,32 +2826,48 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>1857</v>
-      </c>
-      <c r="F30" t="n">
-        <v>588</v>
-      </c>
-      <c r="G30" t="n">
-        <v>461</v>
-      </c>
-      <c r="H30" t="n">
-        <v>-369</v>
-      </c>
-      <c r="I30" t="n">
-        <v>641</v>
-      </c>
-      <c r="J30" t="n">
-        <v>-43</v>
-      </c>
-      <c r="K30" t="n">
-        <v>461</v>
-      </c>
-      <c r="L30" t="n">
-        <v>118</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>912.0000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-568.0000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-211.0000</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1028.0000</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-25.0000</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>16.0000</t>
+        </is>
       </c>
       <c r="M30" s="4" t="n">
-        <v>44343.93866898148</v>
+        <v>44364.43611111111</v>
       </c>
     </row>
     <row r="31">
@@ -2550,11 +2877,15 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
@@ -2571,11 +2902,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>345</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>345.0000</t>
+        </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
@@ -2605,11 +2940,15 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
@@ -2626,11 +2965,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>34534</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>34534.0000</t>
+        </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -2660,11 +3003,15 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
@@ -2681,11 +3028,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>234234</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>234234.0000</t>
+        </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -2715,11 +3066,15 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
@@ -2736,11 +3091,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>234234</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>234234.0000</t>
+        </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2770,11 +3129,15 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
@@ -2791,11 +3154,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>45343</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>45343.0000</t>
+        </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2825,11 +3192,15 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
@@ -2846,11 +3217,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4533</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4533.0000</t>
+        </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
@@ -2880,11 +3255,15 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
@@ -2901,11 +3280,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23423</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>23423.0000</t>
+        </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
@@ -2935,11 +3318,15 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
@@ -2956,11 +3343,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>234234</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>234234.0000</t>
+        </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2990,11 +3381,15 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
@@ -3011,11 +3406,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>23423</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>23423.0000</t>
+        </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -3043,16 +3442,22 @@
         <v>234273</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>445</v>
+        <v>-92.03</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>25478.0034</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25435.2410</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>456.7300</t>
+        </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
@@ -3064,11 +3469,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>-25</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3306.5800</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -3098,11 +3507,15 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
@@ -3119,8 +3532,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
@@ -3155,37 +3570,55 @@
       <c r="B42" t="n">
         <v>100</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F42" t="n">
-        <v>100</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1500.0000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>100.0000</t>
+        </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>-50</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J42" t="n">
-        <v>30</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-50.0000</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2000.0000</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>30.0000</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1000.0000</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>5.0000</t>
+        </is>
       </c>
       <c r="M42" s="3" t="inlineStr">
         <is>
@@ -3198,17 +3631,23 @@
         <v>234276</v>
       </c>
       <c r="B43" t="n">
-        <v>-100</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-200</v>
-      </c>
-      <c r="D43" t="n">
-        <v>115</v>
-      </c>
-      <c r="E43" t="n">
         <v>0</v>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
           <t>-</t>
@@ -3219,11 +3658,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>15</v>
-      </c>
-      <c r="I43" t="n">
-        <v>348</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>348.0000</t>
+        </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -3253,11 +3696,15 @@
       <c r="B44" t="n">
         <v>0</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
@@ -3274,8 +3721,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
@@ -3310,14 +3759,20 @@
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1000</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1000.0000</t>
+        </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
@@ -3329,11 +3784,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
@@ -3358,54 +3817,125 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>789987</v>
+        <v>234286</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>789987</v>
+      </c>
+      <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K46" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L46" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M46" s="3" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
